--- a/tmplt.xlsx
+++ b/tmplt.xlsx
@@ -539,7 +539,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
@@ -571,7 +581,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
@@ -603,7 +623,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
@@ -635,7 +665,15 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
@@ -667,7 +705,16 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
@@ -699,7 +746,18 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
@@ -731,7 +789,15 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
@@ -763,7 +829,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
@@ -795,7 +871,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
@@ -827,7 +913,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
@@ -859,7 +955,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
@@ -891,7 +997,15 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
@@ -923,7 +1037,16 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
@@ -955,7 +1078,18 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
@@ -987,7 +1121,15 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
@@ -1019,7 +1161,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
@@ -1051,7 +1203,17 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
@@ -1083,7 +1245,17 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
@@ -1115,7 +1287,17 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
@@ -1147,7 +1329,15 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
@@ -1179,7 +1369,16 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
@@ -1211,7 +1410,18 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
@@ -1243,7 +1453,15 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
@@ -1275,7 +1493,17 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
@@ -1307,7 +1535,17 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
@@ -1339,7 +1577,17 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
@@ -1371,7 +1619,17 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
@@ -1403,7 +1661,15 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
@@ -1435,7 +1701,16 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
@@ -1467,7 +1742,18 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
@@ -1499,7 +1785,15 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
@@ -1531,7 +1825,17 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
@@ -1563,7 +1867,17 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
@@ -1595,7 +1909,17 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
@@ -1627,7 +1951,17 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
@@ -1659,7 +1993,15 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
@@ -1691,7 +2033,16 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
@@ -1723,7 +2074,18 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
@@ -1755,7 +2117,15 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
@@ -1787,7 +2157,17 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
@@ -1819,7 +2199,17 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
@@ -1851,7 +2241,17 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
@@ -1883,7 +2283,17 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
@@ -1915,7 +2325,15 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
@@ -1947,7 +2365,16 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
@@ -1979,7 +2406,18 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
@@ -2011,7 +2449,15 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
@@ -2043,7 +2489,17 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
@@ -2075,7 +2531,17 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
@@ -2107,7 +2573,17 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
@@ -2139,7 +2615,17 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
@@ -2171,7 +2657,15 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
@@ -2203,7 +2697,16 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
@@ -2235,7 +2738,18 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
@@ -2267,7 +2781,15 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
@@ -2299,7 +2821,17 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
@@ -2331,7 +2863,17 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
@@ -2363,7 +2905,17 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
@@ -2395,7 +2947,17 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
@@ -2427,7 +2989,15 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
@@ -2459,7 +3029,16 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
@@ -2491,7 +3070,18 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
@@ -2523,7 +3113,15 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -2555,7 +3153,17 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
@@ -2587,7 +3195,17 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
@@ -2619,7 +3237,17 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
@@ -2651,7 +3279,17 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
@@ -2683,7 +3321,15 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
@@ -2715,7 +3361,16 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
@@ -2747,7 +3402,18 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
@@ -2779,7 +3445,15 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
@@ -2811,7 +3485,17 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
@@ -2843,7 +3527,17 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
@@ -2875,7 +3569,17 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
@@ -2907,7 +3611,17 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
@@ -2939,7 +3653,15 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
@@ -2971,7 +3693,16 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -3003,7 +3734,18 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
@@ -3035,7 +3777,15 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
@@ -3067,7 +3817,17 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
@@ -3099,7 +3859,17 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -3131,7 +3901,17 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
@@ -3163,7 +3943,17 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
@@ -3195,7 +3985,15 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
@@ -3227,7 +4025,16 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
@@ -3259,7 +4066,18 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
@@ -3291,7 +4109,15 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
@@ -3323,7 +4149,17 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
@@ -3355,7 +4191,17 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
@@ -3387,7 +4233,17 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
@@ -3419,7 +4275,17 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
@@ -3451,7 +4317,15 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
@@ -3483,7 +4357,16 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
@@ -3515,7 +4398,18 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
@@ -3547,7 +4441,15 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
@@ -3579,7 +4481,17 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
@@ -3611,7 +4523,17 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
@@ -3643,7 +4565,17 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
@@ -3675,7 +4607,17 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
@@ -3707,7 +4649,15 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
@@ -3739,7 +4689,16 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
@@ -3771,7 +4730,18 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
@@ -3803,7 +4773,15 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
@@ -3835,7 +4813,17 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
@@ -3867,7 +4855,17 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
@@ -3899,7 +4897,17 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
@@ -3931,7 +4939,17 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
@@ -3963,7 +4981,15 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
@@ -3995,7 +5021,16 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
@@ -4027,7 +5062,18 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
@@ -4059,7 +5105,15 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
@@ -4091,7 +5145,17 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
@@ -4123,7 +5187,17 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
@@ -4155,7 +5229,17 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
@@ -4187,7 +5271,17 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
@@ -4219,7 +5313,15 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
@@ -4251,7 +5353,16 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
@@ -4283,7 +5394,18 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
@@ -4315,7 +5437,15 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
@@ -4347,7 +5477,17 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
@@ -4379,7 +5519,17 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
@@ -4411,7 +5561,17 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
@@ -4443,7 +5603,17 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
@@ -4475,7 +5645,15 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
@@ -4507,7 +5685,16 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
@@ -4539,7 +5726,18 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
@@ -4571,7 +5769,15 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
@@ -4603,7 +5809,17 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
@@ -4635,7 +5851,17 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
@@ -4667,7 +5893,17 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
@@ -4699,7 +5935,17 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -4731,7 +5977,15 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
@@ -4763,7 +6017,16 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
@@ -4795,7 +6058,18 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
@@ -4827,7 +6101,15 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
@@ -4859,7 +6141,17 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="n">
@@ -4891,7 +6183,17 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="n">
@@ -4923,7 +6225,17 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
@@ -4955,7 +6267,17 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
@@ -4987,7 +6309,15 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="n">
@@ -5019,7 +6349,16 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
@@ -5051,7 +6390,18 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
@@ -5083,7 +6433,15 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
@@ -5115,7 +6473,17 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="n">
@@ -5147,7 +6515,17 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="n">
@@ -5179,7 +6557,17 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="n">
@@ -5211,7 +6599,17 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="n">
@@ -5243,7 +6641,15 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="n">
@@ -5275,7 +6681,16 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="n">
@@ -5307,7 +6722,18 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
@@ -5339,7 +6765,15 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
@@ -5371,7 +6805,17 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
@@ -5403,7 +6847,17 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
@@ -5435,7 +6889,17 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">
@@ -5467,7 +6931,17 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="n">
@@ -5499,7 +6973,15 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
@@ -5531,7 +7013,16 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="n">
@@ -5563,7 +7054,18 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
@@ -5595,7 +7097,15 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="n">
@@ -5627,7 +7137,17 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
@@ -5659,7 +7179,17 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="n">
@@ -5691,7 +7221,17 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="n">
@@ -5723,7 +7263,17 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="n">
@@ -5755,7 +7305,15 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="n">
@@ -5787,7 +7345,16 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
@@ -5819,7 +7386,18 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="n">
@@ -5851,7 +7429,15 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
@@ -5883,7 +7469,17 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="n">
@@ -5915,7 +7511,17 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="n">
@@ -5947,7 +7553,17 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="n">
@@ -5979,7 +7595,17 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="n">
@@ -6011,7 +7637,15 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="n">
@@ -6043,7 +7677,16 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="n">
@@ -6075,7 +7718,18 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
@@ -6107,7 +7761,15 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="n">
@@ -6139,7 +7801,17 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="n">
@@ -6171,7 +7843,17 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="n">
@@ -6203,7 +7885,17 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="n">
@@ -6235,7 +7927,17 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="n">
@@ -6267,7 +7969,15 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="n">
@@ -6299,7 +8009,16 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
@@ -6331,7 +8050,18 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
@@ -6363,7 +8093,15 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="n">
@@ -6395,7 +8133,17 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="n">
@@ -6427,7 +8175,17 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="n">
@@ -6459,7 +8217,17 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="n">
@@ -6491,7 +8259,17 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="n">
@@ -6523,7 +8301,15 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="n">
@@ -6555,7 +8341,16 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="n">
@@ -6587,7 +8382,18 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
@@ -6619,7 +8425,15 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
@@ -6651,7 +8465,17 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
@@ -6683,7 +8507,17 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
@@ -6715,7 +8549,17 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="n">
@@ -6747,7 +8591,17 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="n">
@@ -6779,7 +8633,15 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
@@ -6811,7 +8673,16 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="n">
@@ -6843,7 +8714,18 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="n">
@@ -6875,7 +8757,15 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="n">
@@ -6907,7 +8797,17 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="n">
@@ -6939,7 +8839,17 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="n">
@@ -6971,7 +8881,17 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="n">
@@ -7003,7 +8923,17 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="n">
@@ -7035,7 +8965,15 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="n">
@@ -7067,7 +9005,16 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="n">
@@ -7099,7 +9046,18 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="n">
@@ -7131,7 +9089,15 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="n">
@@ -7163,7 +9129,17 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="n">
@@ -7195,7 +9171,17 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
@@ -7227,7 +9213,17 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="n">
@@ -7259,7 +9255,17 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="n">
@@ -7291,7 +9297,15 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="n">
@@ -7323,7 +9337,16 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="n">
@@ -7355,7 +9378,18 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="n">
@@ -7387,7 +9421,15 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
@@ -7419,7 +9461,17 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="n">
@@ -7451,7 +9503,17 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="n">
@@ -7483,7 +9545,17 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="n">
@@ -7515,7 +9587,17 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="n">
@@ -7547,7 +9629,15 @@
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="n">
@@ -7579,7 +9669,16 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="n">
@@ -7611,7 +9710,18 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="n">
@@ -7643,7 +9753,15 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="n">
@@ -7675,7 +9793,17 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="n">
@@ -7707,7 +9835,17 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="n">
@@ -7739,7 +9877,17 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="n">
@@ -7771,7 +9919,17 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="n">
@@ -7803,7 +9961,15 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="n">
@@ -7835,7 +10001,16 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="n">
@@ -7867,7 +10042,18 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="n">
@@ -7899,7 +10085,15 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="n">
@@ -7931,7 +10125,17 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="n">
@@ -7963,7 +10167,17 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="n">
@@ -7995,7 +10209,17 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="n">
@@ -8027,7 +10251,17 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="n">
@@ -8059,7 +10293,15 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="n">
@@ -8091,7 +10333,16 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="n">
@@ -8123,7 +10374,18 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="n">
@@ -8155,7 +10417,15 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="n">
@@ -8187,7 +10457,17 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="n">
@@ -8219,7 +10499,17 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="n">
@@ -8251,7 +10541,17 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="n">
@@ -8283,7 +10583,17 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="n">
@@ -8315,7 +10625,15 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="n">
@@ -8347,7 +10665,16 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="n">
@@ -8379,7 +10706,18 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="n">
@@ -8411,7 +10749,15 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="n">
@@ -8443,7 +10789,17 @@
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="n">

--- a/tmplt.xlsx
+++ b/tmplt.xlsx
@@ -551,7 +551,26 @@
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Risques engendrés par cette situation :
+-Baisse du CA
+-Client final insatisfait, dé fidélisation
+-Notoriété en baisse
+-Baisse de la fréquentation
+-Panier moyen plus faible, puisque les artisans risquent de se fournir dans d’autres négoces
+-La concurrence va récupérer des parts de marché
+-Risque de sureffectif
+Evaluation des risques :
+</t>
+        </is>
+      </c>
       <c r="P2" t="n">
         <v>10</v>
       </c>
@@ -593,7 +612,23 @@
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Qui mandate l’audit ?
+C’est le directeur de l’agence qui mandate l’audit
+ Qui réalise l’audit ?
+L’audit est réalisé en interne par les services supports, sous la responsabilité du service qualité
+Sur quels critères l’auditeur est choisi ?
+L’audit doit se dérouler sur une période de 2mois, le délai est très court, le temps de lancer une demande de consultation externe, d’avoir un chiffrage et de valider un devis, cela prendrait trop de temps. De plus les services internes connaissent bien l’entreprise et les procédures.
+</t>
+        </is>
+      </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
@@ -635,7 +670,40 @@
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Établir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes et le planning de l’audit sont les suivantes :
+Début de l’Audit : 01/02
+RELATION CLIENT : Février 01-05
+	-Ecoute des besoins clients
+	-Proposition/Alternative
+STOCKAGE : Février 05-15
+	-Capacité de stockage
+	-Organisation et rangement des réserves
+ORGANIGRAMME : Février 15-17
+	-Définir l’ensemble des parties prenantes
+PROCEDURES : Févier 17-20
+	-où sont-elles, qui passe les commandes, où sont-elles stockées
+RESSOURCES HUMAINES : 21 Février- 05 Mars 
+	-Recrutement
+	-Formation : Formation des collaborateurs
+	-Eléments de motivation
+	-Remonté des anomalies N+1/N+2/N+3
+PILOTAGE : Mars 06 -15
+	-Définition de la capacité de stockage
+	-KPI’s : Analyse des historiques de ventes  
+Préparation de l’audit, compte rendu et préconisations : Mars 15-30
+Compte rendu d’audit : 31/03
+Matrice RACI :
+</t>
+        </is>
+      </c>
       <c r="P4" t="n">
         <v>3.33</v>
       </c>
@@ -675,7 +743,25 @@
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+-Organigramme interne local et régional avec les liens de subordination directs et indirects/transverses
+-Fiches de poste de l’ensemble des intervenants ainsi que les contrats de travail pour vérifier les statuts et le montant des rémunérations
+-Livret d’accueil s’il existe pour tous les collaborateurs
+-Entretien professionnel et annuel (pour vérifier les attentes et les besoins de formation)
+-Comptes rendus de visite de toutes les équipes supports (animation, responsable région…) et autres RETEX
+-Analyse du CRM, avec les ventes, les dates de ruptures
+-les réclamations clients
+-L’ensemble des procédures et manuels sur le fonctionnement des passages de commande auto
+-plan des réserves et plan de stockage avec la capacité de stockage
+-Plan de formation et vérifier les dates des dernières formations
+</t>
+        </is>
+      </c>
       <c r="P5" t="n">
         <v>10</v>
       </c>
@@ -716,7 +802,50 @@
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Les 3 personnes à auditer sont :
+	-le vendeur
+	-le manageur 
+	-le DR
+Guide d’entretien pour le Manager sur le modèle de la roue de Deming :
+PLAN :
+	-PLAN :
+*fiches de mission de tout le monde
+		Comment sont construites les fiches de poste ?		
+		*Organigramme : interne, local et natio
+				Peux-tu m’expliquer ton organigramme ?
+		*Formation : déjà passé ou les besoins
+				Comment les plans de formation sont-ils proposés ?
+	-DO :
+		*Type de management
+				Peux-tu me décrire ton management ?
+		*Fixation des primes sur objectif
+				Comment sont définies les primes sur objectifs ?
+		*Validation du rangement des réserves
+				Peux-tu m’expliquer ton organisation sur le stockage des réserves ?
+	-CHECK :
+		*Point de contrôle sur l’état des stocks
+				Peux-tu m’expliquer les écarts sur les stocks ?
+		*point de contrôle dur l’état des ventes
+				Peux-tu m’expliquer l’évolution des ventes sur les 6 derniers mois
+		*Point de contrôle sur l’état des paniers moyens
+				Peux-tu m’expliquer l’évolution des paniers moyens sur les 6 derniers mois
+		*Point de contrôle sur le CA moyen des principaux clients
+				Peux-tu m’expliquer l’évolution du CA de tes 12 plus gros clients
+	-ACT :
+		*processus d’amélioration/amélioration continue
+				As-tu des solutions d’amélioration à proposer ?				 
+		*Retour DR
+				Comment fais-tu ton retour après auprès de ton DR ?
+</t>
+        </is>
+      </c>
       <c r="P6" t="n">
         <v>8.33</v>
       </c>
@@ -759,7 +888,27 @@
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Conclusion :
+Un point fort :
+	*Demander un audit est source d’une volonté d’amélioration. 
+Deux points sensibles :
+	*Des produits de substitution inadaptée
+	*Un état des stocks trop faible
+Deux écarts :
+	*Comparaison des CA entre le mois d’octobre N et octobre N-1 et novembre N et novembre N+1
+	*Comparaison entre la valorisation des inventaires N et N-1
+</t>
+        </is>
+      </c>
       <c r="P7" t="n">
         <v>7.5</v>
       </c>
@@ -799,7 +948,20 @@
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Main d’œuvre : Manque de formation
+Méthode : procédures absentes et inadaptées
+Milieu : Surface de stockage trop petite
+Matériel : Manque de contrôle et de d’analyse des données
+Matière : Produits de substitution inappropriés
+</t>
+        </is>
+      </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
@@ -841,7 +1003,20 @@
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Surface de stockage trop petite :
+	Il faudrait sans doute trouver une surface de stockage supplémentaire, c’est souvent assez facile à trouver pour augmenter sa capacité de stock et éviter les ruptures
+Produits de remplacement inadaptés :
+	Sourcer/référencer des produits plus adaptés, demander aux professionnels ce qu’ils attendant de façon plus précise. Imaginer des séances collaboratives avec eux. Faure des présentations avec les industrielles come cela se pratique avec les revendeurs de machines électriques (Dewalt ou autre marque…)</t>
+        </is>
+      </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
@@ -883,7 +1058,21 @@
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Risque 1 : mécontentement des clients
+Risque 2 : perte de clients  
+Risque 3 : Perte de CA important 
+Les risque 2 et 3 sont liés  et c’est critique car les artisans électriciens sont leur principaux clients et ils pourraient aller se fournir ailleurs pour l’ensemble de leur achat avec une perte de CA très importante  . Et il est plus difficile de faire revenir que de conquérir un nouveau client
+</t>
+        </is>
+      </c>
       <c r="P10" t="n">
         <v>5</v>
       </c>
@@ -925,7 +1114,20 @@
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L’audit est mandaté par le directeur d’agence 
+L’audit sera réalisé en interne par un responsable régionale  méthode et procédure 
+L’auditeur doit être objectif , indépendant , avoir une vision globale des organisations 
+</t>
+        </is>
+      </c>
       <c r="P11" t="n">
         <v>7.5</v>
       </c>
@@ -967,7 +1169,29 @@
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+4 étapes 
+Préparation de l’audit 
+Recueil d’information sur le terrain
+Synthèse de l’audit 
+Recherche de solutions et d’amélioration
+Préparation de l’audit   (. 1/02 au 15/02 ). : champ et périmètre , analyse documentaire , plan d’audit 
+Recueil d’information sur le terrain 
+Oservations  15/02  16/02 
+Entretien face à face  25/02
+Animation de groupe de travail  5/03
+Synthèse de l’audit  et établissement du rapport  à rendre pour le 31/03
+Recherche de solutions et d’amélioration après avec le directeur d’agence 
+</t>
+        </is>
+      </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
@@ -1007,7 +1231,18 @@
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Document de présentation de l’entreprise  , dans les documents comme les procédures / instructions / mode opératoires 
+Savoir qui fait quoi avec  l’organigramme,  les fiches de poste , les fiches de mission
+Anciens rapport d’audit , les tableaux de bords, compte rendus de réunions 
+</t>
+        </is>
+      </c>
       <c r="P13" t="n">
         <v>7.5</v>
       </c>
@@ -1048,7 +1283,19 @@
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Approvisionneur
+Chef du service achat 
+Réceptionnaire  =&gt; guide d’entreien 
+</t>
+        </is>
+      </c>
       <c r="P14" t="n">
         <v>6.67</v>
       </c>
@@ -1091,7 +1338,22 @@
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+point fort : rigueur  dans la qualité des réceptions , toute anomie est remonté directement 
+Point sensibles : la  réserve mal rangé   ,   le réceptionnaire est souvent interrompu durant ses inventaires tournants
+Écarts :  quand une anomalie de stock est constatée dans les rayons elle n’est pas remonté directement 
+Beaucoup de produits ne sont pas rangés à la bonne place ce qui peut créer des inversions de produits lors d’une vente et donc des erreurs de stocks 
+</t>
+        </is>
+      </c>
       <c r="P15" t="n">
         <v>10</v>
       </c>
@@ -1131,7 +1393,17 @@
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Anomolie de stock non remonté   ;  manque de temps , pas de procédure mise en place  , ne sait pas ou remonter l’information
+Produit non rangé à la bonne place :  réserve mal rangé , procédure non respecté , double contrôle des code barres  non systématique 
+</t>
+        </is>
+      </c>
       <c r="P16" t="n">
         <v>5</v>
       </c>
@@ -1173,7 +1445,20 @@
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+1 anomie de stock non remonté :   mettre en place une procédure , 
+Produit mal rangé :  .faire vérifier le rangement des produis def açon régulière 
+. faire une réunion d’équipe pour expliquer la procédure de rangement en stock
+</t>
+        </is>
+      </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
@@ -1215,7 +1500,18 @@
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques engendrés par cette situation sont :
+</t>
+        </is>
+      </c>
       <c r="P18" t="n">
         <v>10</v>
       </c>
@@ -1257,7 +1553,21 @@
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Cette rupture de stock est donc l’élément déclencheur constaté par la direction pour provoquer l’audit. Plus précisément, le directeur de l’agence a décidé de mettre en place un audit de l’organisation.
+Le directeur de l’agence prend contact avec le siège pour demander au département interne d’audit de DISTRELEC, un audit des processus logistiques. Le directeur de l’agence devient un client (interne) qui suivra les différentes étapes que lui indiquera l’auditeur.
+L’auditeur ira vérifier l’existence, la mise en place et l’efficacité des leviers de performance opérationnels qui sont censé garantir une chaine logistique optimal. 
+L’auditeur sera choisi sur ses compétences dans le milieu logistique, sa capacité à prendre du recul sur l’organisation pour déceler les dysfonctionnements.
+</t>
+        </is>
+      </c>
       <c r="P19" t="n">
         <v>10</v>
       </c>
@@ -1299,7 +1609,27 @@
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes de l’audit sont :
+La préparation de l’audit :
+Définir l’objectif à savoir, 
+Qui audit – on ?
+Ici, le service de la gestion de la logistique sera visé par l’audit.
+Qu’est-ce que qu’on audit ?
+Les processus d’approvisionnement, de commande et de la gestion du stock seront au cœur des questions.
+Quand on audit ?
+En fonction du planning, voir exemple ci-dessous
+R – REALISATEURS		A – AUTORITES		C – CONSULTES 	I - INFORME
+</t>
+        </is>
+      </c>
       <c r="P20" t="n">
         <v>3.33</v>
       </c>
@@ -1339,7 +1669,17 @@
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Une analyse documentaire aidera l’auditeur à apporter des données précises et factuelles sur les raisons de ces ruptures de stock. Les tableaux de bord des managers pourront être utilisé, mais également les documents présentant les procédures, les modes opératoires. Les anciens rapports d’audit ou les comptes rendus de réunion pourront faire apparaitre les données recherchées.
+Aussi, les éléments qui pourraient aider l’auditeur à préparer son audit seraient de recueillir plus de données par des animations de groupe, des entretiens individuels ou par des observations.
+</t>
+        </is>
+      </c>
       <c r="P21" t="n">
         <v>10</v>
       </c>
@@ -1380,7 +1720,17 @@
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Les trois fonctions à auditer seraient l’approvisionneur (Antoine), la réceptionnaire (Amal) et la chef du service achat (Eve).
+</t>
+        </is>
+      </c>
       <c r="P22" t="n">
         <v>6.67</v>
       </c>
@@ -1423,7 +1773,21 @@
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+En conclusion, le point fort est la cohésion du groupe qui s’entend très bien et est capable de réorganiser leur travail en équipe. 
+Les points sensibles sont sur la capacité du stock à accueillir l’ensemble des références proposées par DISTRELEC et le renforcement d’une ressource au stock pour faciliter les manœuvres de chargement et de déchargement.
+Les écarts sont au niveau de l’enregistrement des données au stock, un clavier est défectueux et entre de mauvaises données ce qui créé l’illusion d’une rupture.
+</t>
+        </is>
+      </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
@@ -1463,7 +1827,15 @@
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
@@ -1505,7 +1877,17 @@
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -1547,7 +1929,28 @@
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Risque 1 : Perte des clients, les clients achètent ailleurs
+Criticité =&gt; PROBABILITE : Probable + CONSEQUENCE : Critique
+Pourquoi ? : La perte de clients engendre une perte de chiffre d’affaires. Cela oblige l’entreprise à continuellement rechercher de nouveaux clients pour conserver une certaine stabilité à défaut de croissance. 
+Risque 2 : Perte de chiffre d ‘affaire 
+Criticité =&gt; PROBABILITE : Probable + CONSEQUENCE : Critique
+Pourquoi ? : La perte de CA ne permet pas à l’entreprise d’obtenir de la croissance et les ressources nécessaires pour investir dans le recrutement ou l’amélioration de ses processus
+Risque 3 : Perte de personnel « commerciaux »
+Criticité =&gt; PROBABILITE : Probable + CONSEQUENCE : Critique
+Pourquoi ? : Le commercial est rémunéré sur le CA réalisé et donc perd du salaire. Ces clients deviennent désagréable voir agressif du au problème de gestion du stock et qui n’est pas de son ressort.
+Risque 3 : Mauvaise image de marque
+Criticité =&gt; PROBABILITE : Probable + CONSEQUENCE : Majeure
+</t>
+        </is>
+      </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
@@ -1589,7 +1992,22 @@
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Le directeur de l’agence est le mandataire
+Le Responsable Qualité de la société DISTRELEC va réaliser l’audit donc en interne.
+L’auditeur est choisi selon les critères suivants :
+Responsable du Système Qualité de l’entreprise et a ce titre qualifier pour mener à bien un audit interne.
+N’est pas responsable ou manager des services à auditer
+</t>
+        </is>
+      </c>
       <c r="P27" t="n">
         <v>7.5</v>
       </c>
@@ -1631,7 +2049,38 @@
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+ETAPE DE L’AUDIT : 4 étapes
+1- PREPARATION DE L’AUDIT 
+● CHAMP ET PERIMETRE : 
+- Processus et activité à auditer ? 
+- Les personnes à auditer ? 
+● ANALYSE DOCUMENTAIRE : =&gt; 20 février
+● Formaliser le PLAN D’AUDIT en concertation avec le responsable =&gt; 27 février
+● Planifier des entretiens =&gt; 6 mars
+● Préparation des GUIDES D’ENTRETIENS =&gt; 6 mars
+2-RECUEIL D’INFORMATION SUR LE TERRAIN – REALISATION DE L’AUDIT SUR LE TERRAIN 
+1-OBSERVATION =&gt; 20 mars
+2-ENTRETIEN FACE A FACE =&gt; 13 mars
+3-ANIMATION DE GROUPE =&gt; 20 mars
+3-SYNTHESE DE L’AUDIT
+● RAPPORT D’AUDIT pour le client de l’audit =&gt; 31 mars
+4-RECHERCHE DE SOLUTION D’AMELIORATION
+Les acteurs de l’audit : 
+Réalisateur
+Approbateur
+Consulté
+Informé
+</t>
+        </is>
+      </c>
       <c r="P28" t="n">
         <v>6.67</v>
       </c>
@@ -1671,7 +2120,25 @@
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Organigramme de la société 
+Fiches de poste, fiches de missions et les contrats de travail de chacun des acteurs de l’audit
+Matrice RACI qui fait quoi 
+La Cartographie des différents processus structurels, opérationnels et supports
+Les fiches d’identité processus 
+Le manuel d’organisation, les procédures, les modes opératoires et les instructions concernant les différentes missions des acteurs de l’audit. De l’achat du produit à la réception, au rangement jusqu’à la sortie du stock.
+Les guides de bonnes pratiques
+Le système d’amélioration continue et tous les rapports de réunions
+Tous ce qui concerne les informations sur la CRM ou le logiciel ERP
+Tous les documents concernant le processus de recrutement et d’intégration des salariés
+</t>
+        </is>
+      </c>
       <c r="P29" t="n">
         <v>7.5</v>
       </c>
@@ -1712,7 +2179,20 @@
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à audite
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+3 personnes (fonctions) à audite :
+Responsable service logistique
+Préparateurs de commande
+Approvisionneur
+</t>
+        </is>
+      </c>
       <c r="P30" t="n">
         <v>6.67</v>
       </c>
@@ -1755,7 +2235,18 @@
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P31" t="n">
         <v>7.5</v>
       </c>
@@ -1795,7 +2286,15 @@
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -1837,7 +2336,17 @@
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P33" t="n">
         <v>3.33</v>
       </c>
@@ -1879,7 +2388,26 @@
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques :
+Risque 1 : Baisse du CA
+Risque 2 : Dégradation de l’image de marque pour distrelect
+Risque 3 : Perte de clients qui vont aller s’approvisionner chez des concurrents
+Risque 4 : Mécontentement des clients qui dégrade l’ambiance « convivial » de l’agence
+Risque 5 : Baisse de la motivation des salariés de l’agence
+Les risques 1, 2, 3 sont ceux pouvant avoir le plus d’impact. L’agence de Toulon fonctionne beaucoup avec les artisans qui passent le matin avant les chantiers. S’ils n’ont pas leur matériel, ils vont devoir se tourner sur d’autres concurrents pour ne pas prendre du retard sur leurs chantiers.
+Le bouche à oreille fonctionne très vite sur ce type de commerce.
+L’image de marque de Distrelect pourrait vite en pâtir et surtout, le chiffre d’affaires serait rapidement impacté.
+</t>
+        </is>
+      </c>
       <c r="P34" t="n">
         <v>10</v>
       </c>
@@ -1921,7 +2449,28 @@
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Le 30 janvier, le responsable de l’agence qui veut mettre en place un audit et pouvoir avoir les résultats le 31 mars
+L’audit concernera 2 secteurs d’activités :
+Le service logistique (préparateurs de commandes – expéditionnaires)
+Le service achat (approvisionnement – réceptionnaires)
+Vu les délais contraints, il est préférable de faire un audit interne.
+Il est important que ce soit une personne ayant la légitimité (hiérarchique) et la neutralité (services autres que logistique et achat) pour faire cet audit. Le responsable Qualité pourrait la bonne personne.
+Bonne connaissance de :
+L’entreprise
+Des commandes
+Des clients
+Des agences
+</t>
+        </is>
+      </c>
       <c r="P35" t="n">
         <v>10</v>
       </c>
@@ -1963,7 +2512,37 @@
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les différentes étapes :
+Définir le champ et le périmètre à auditer – 5 février
+Direction d’agence
+Service qualité
+Analyse documentaire – 10 février
+Organigramme
+Process
+Tableaux de suivi
+Outils de gestion informatique sur les 6 derniers mois
+Inventaires hebdomadaires sur les 6 derniers mois
+Evolution de l’agence sur la même période
+Plan d’audit – 13 février
+Planifier les différents audits et prévenir les personnes
+Prévenir les responsables de service de la tenue d’un audit
+Réalisation de l’audit – 23 février
+Entretien face à face avec les personnes ressources identifiées dans le plan d’audit
+Rédaction du rapport d’audit – le 29 mars
+Responsable service qualité
+Remise et présentation du rapport d’audit au Directeur d’agence le 31mars
+Responsable service qualité
+</t>
+        </is>
+      </c>
       <c r="P36" t="n">
         <v>10</v>
       </c>
@@ -2003,7 +2582,25 @@
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+L’analyse documentaire peut s’appuyer sur les documents suivants :
+Organigramme
+Process
+Fiche de poste
+Tableaux de suivi des stocks
+Outils de gestion informatique sur les 6 derniers mois
+Inventaires hebdomadaires sur les 6 derniers mois
+Carnets des ventes (évolution de la vente du produit)
+Notes internes sur l’évolution de l’agence sur la même période (effectifs, changements d’organisation, etc)
+Autres indicateurs comme satisfaction clients s’il y a
+</t>
+        </is>
+      </c>
       <c r="P37" t="n">
         <v>10</v>
       </c>
@@ -2044,7 +2641,22 @@
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Les personnes que nous pourrions auditer :
+Préparateur de commande (c’est lui qui fait l’alerte quand il voit les stocks faibles)
+Approvisionneur
+Vendeur banque
+(Même s’il serait également souhaitable d’auditionner les responsables des 3 services Commerciale / Logistique / Achat)
+Le préparateur de commande
+</t>
+        </is>
+      </c>
       <c r="P38" t="n">
         <v>8.33</v>
       </c>
@@ -2087,7 +2699,45 @@
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Le mois de janvier a vu à 10 reprises une rupture du stock d’ampoule LED. Ce qui entraine un mécontentement des clients. Le Directeur d’agence a souhaité faire un audit interne pour améliorer la situation.
+C’est le service qualité qui a été mandaté pour réaliser cette mission.
+L’audit c’est déroulé du 05 février au 29 mars. Nous avons pu accéder à tous les documents de l’agence :
+Organigramme
+Process
+Fiche de poste
+Tableaux de suivi des stocks
+Outils de gestion informatique sur les 6 derniers mois
+Inventaires hebdomadaires sur les 6 derniers mois
+Notes internes sur l’évolution de l’agence sur la même période (effectifs, changements d’organisation, etc)
+Indicateurs satisfaction clients
+Les personnes qui ont été auditionnées en face à face :
+Les responsables commerciale – logistique – achat
+Préparateur commande
+Vendeurs banque
+Approvisionneurs
+Réceptionnaires
+Nous avons identifié 
+Un point fort :
+La motivation et l’implication des acteurs dans un esprit d’agence et fier de leur marque employeur.
+Deux points sensibles :
+La durée des commandes qui s’est allongée à cause des fournisseurs
+Le manque de lien d’information entre le service commerciale et le service achat.
+Augmentation de la vente d’un produit non prit en compte par le service achat
+Deux écarts :
+Le manque de processus d’alerte sur les stocks faibles qui est à la bonne appréciation des préparateurs de commande
+Pas de niveau de stock de réserve permettant le temps du réapprovisionnement
+</t>
+        </is>
+      </c>
       <c r="P39" t="n">
         <v>10</v>
       </c>
@@ -2127,7 +2777,16 @@
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Désolé pas asses de temps pour faire Hishikawa, du coup je l’ai refait en tableau
+</t>
+        </is>
+      </c>
       <c r="P40" t="n">
         <v>10</v>
       </c>
@@ -2169,7 +2828,32 @@
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Il y a une cause qui revient dans les 2 écarts : 
+Outil informatique de gestion des stocks qui n’émet pas d’alerte automatique au service achat
+Solutions proposées :
+Faire évoluer le système informatique de gestion des stocks avec un paramétrage qui peut être modifier par le responsable de service achat.
+Le paramétrage doit prendre en compte :
+Le délai de livraison
+Le nombre de pièce vendu durant cette période
+Avoir une réserve de J+2 
+Il doit pouvoir être adapté mensuellement par le service achat en fonction des écarts de ventes et variation de des délais d’achat
+Organisation de réunions interservices pour faire un pour sur ventes / achats permettant y compris aux commerciaux d’avoir les informations nécessaires en cas de rupture à cause des fournisseurs.
+Pour l’autre cause :
+Pour le manque de process sur les alertes de stocks faibles :
+Solutions proposées :
+Définir les seuils d’alerte et un seuil minimal
+Etablir un processus d’alerte pour le service achat quand on arrive en zone d’alerte
+Etablir un processus d’information pour le service achat et le service commercial quand nous sommes en zone minimale</t>
+        </is>
+      </c>
       <c r="P41" t="n">
         <v>10</v>
       </c>
@@ -2211,7 +2895,18 @@
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques critiques identifiés sont la perte de clients et la perte de qualité car leur impact pourrait être significatif concernant l’activité commerciale de l’agence sur le long terme.
+</t>
+        </is>
+      </c>
       <c r="P42" t="n">
         <v>10</v>
       </c>
@@ -2253,7 +2948,25 @@
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+*L’audit est mandaté par le directeur de l’agence.
+*L’audit peut être réalisé en interne par une ou plusieurs personnes de l’agence qui connaissent parfaitement ses procédures et processus de fonctionnement. Un des points de vigilance à garder à l’esprit est qu’en audit interne, les auditeurs peuvent être influencés par les relations et les attentes du directeur, cela peut influencer leur capacité à conduire un audit de manière impartiale. On notera que cela pourrait aussi prendre moins de temps à la préparation et à l’exécution. A l’inverse, l’audit peut être conduit pas un prestataire externe et dans ce cas là aura une perspective externe impartiale et pourra être spécifique à la situation. Bien évidemment, dans cette configuration, le coût sera plus important et l’auditeur aura besoin de plus de temps (toutes les étapes d’un audit, dont la récupération des documents pour mieux connaitre l’entreprise et organiser l’audit).
+*Les critères sur lesquels est choisi l’auditeur est :
+Son expérience et son niveau d’expertise dans la gestion des stocks et de l’approvisionnement,
+Son expérience dans la conduite d’audits similaires,
+La réputation de l’auditeur (feedback des précédents clients),
+La qualité des audits précédents,
+Son impartialité.
+</t>
+        </is>
+      </c>
       <c r="P43" t="n">
         <v>10</v>
       </c>
@@ -2295,7 +3008,28 @@
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+-Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes de l’audit : 
+Du 06/02 au 10/02 : Préparation de l’audit (Guide d’entretien et plan d’audit) : dans un premier temps, déterminer les objectifs de l'audit (domaines à auditer et les résultats attendus).
+Du 13/02 au 15/02 : Réalisation de l’audit (Observation sur le terrain, entretien face à face et animation de groupe de travail).
+15/02 : Conclusion de l’audit (plan d’actions d’améliorations, rapport d’audit).
+Les acteurs de l’audit et leurs responsabilités : 
+Commanditaire de l’audit – client : le directeur de l’agence (Celui qui demande la conduite d’un audit, il établi les objectifs et les attentes).
+Responsable de l’audit : Responsable commercial qui pourrait aider à la planification, la conduite et la réalisation d’un rapport d’audit.
+Auditeur : personne externe ou interne qui collecte les données pour les analyser
+Personnes consultées : Personnes qui pourraient être experte ou assez ancienne dans l’agence et ayant une vue d’ensemble du processus. Elles pourraient fournir des informations ou des points de vue extérieur aux personnes impliquées directement dans les processus audités.
+Les acteurs clés de l’audit : personnes impliquées dans le processus d’approvisionnement / logistique de l’agence identifiée. Ex : Responsable service logistique / achat, préparateur de commande, approvisionneur, acheteur.
+Les personnes informées :  Direction (client), personnes clés et impliquées informées des conclusions de l’audit.
+</t>
+        </is>
+      </c>
       <c r="P44" t="n">
         <v>10</v>
       </c>
@@ -2335,7 +3069,29 @@
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Les documents qui pourraient nous aider à préparer cet audit :
+Organigramme,
+Fiche de Poste,
+Procédures interne/ process,
+Cartographie des processus,
+Fiche d’identité de processus,
+Manuel d’organisation,
+Modes opératoires,
+Guide des bonnes pratiques,
+Système d’amélioration continue,
+Résultats enquêtes client (questionnaires de satisfaction, commentaires sur internet = CRM),
+Résultats enquêtes internes,
+Rapport d’évolution des KPI,
+Liste des KPI,
+</t>
+        </is>
+      </c>
       <c r="P45" t="n">
         <v>10</v>
       </c>
@@ -2376,7 +3132,21 @@
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+-Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Personne à auditer :
+Préparateur de commande,
+Approvisionneurs,
+Responsable service logistique,
+Guide d’entretien : pour le préparateur de commandes
+</t>
+        </is>
+      </c>
       <c r="P46" t="n">
         <v>6.67</v>
       </c>
@@ -2419,7 +3189,25 @@
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Point fort :  exécution du processus d’expédition 
+Points sensibles :
+- Communication faible entre les services
+- limites basses pour relance de commandes
+2 écarts :
+- Pas de respect des points de commandes
+- Pas de 
+</t>
+        </is>
+      </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
@@ -2459,7 +3247,27 @@
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+-Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Milieu :
+L’ambiance n’est pas bonne due au stress de l’activité (flux tendu)
+Les services ne s’entendent pas
+Méthodes : 
+Poste pas expliqué correctement aux approvisionneurs dont un est nouveau,
+Pas d’accompagnement sur le terrain
+Pas de réunion de coordination
+Matériel :
+Système informatique non fonctionnel (beugue, pas d’info à jour ou long)
+Main d’œuvre :
+Pas compris les attentes du poste
+Pas compris l’importance stratégique du poste
+</t>
+        </is>
+      </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
@@ -2501,7 +3309,17 @@
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+-Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
@@ -2875,7 +3693,24 @@
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques engendrés par la rupture de produits A à forte rotation sont 
+1 Une insatisfaction client
+ 2 Image de marque écornée (incapacité de Distrelect à tenir produits courants en stock)
+3 Recherche du produit manquant chez autre distributeur.
+4 Fréquentation magasin en baisse
+ 5 Impact sur la part de CA enlevé au comptoir, perte de clients
+Les risques critiques la fréquentation en baisse du magasin et l’impact sur la part de CA enlevé au comptoir (perte clients)
+</t>
+        </is>
+      </c>
       <c r="P58" t="n">
         <v>10</v>
       </c>
@@ -2917,7 +3752,22 @@
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L’audit est déclenché par la direction commerciale avec une validation de la DG.
+Celui-ci sera réalisé par un cabinet extérieur en collaboration et co-construction avec la Direction Commerciale et LOGISTIQUE.
+L’expertise métier Distrelect (distributeur matériel électrique) ne sera pas le premier critère de sélection mais une maîtrise du monde du négoce et la distribution spécialisée.
+La discrétion ainsi qu’une communication efficace et rassurante (pas accusatrice). Pour ne pas déstabiliser les équipes il sera nécessaire pour éviter la diffusion d’informations alarmistes des équipes aux clients de communiquer avec les audités en amont .
+Capacité du cabinet à donner du sens et expliquer la mission
+</t>
+        </is>
+      </c>
       <c r="P59" t="n">
         <v>10</v>
       </c>
@@ -2959,7 +3809,24 @@
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes d’un audit au nombre de 4 . 3 pour l’audit et 1 pour la suite.
+1 LA PREPA DE L AUDIT : Quoi, qui, quand. Identification des infos à recueillir
+Analyse des éléments déclencheurs, les attentes, KPI analyse des risques.
+Ce qui permet identifier les processus, activités et leviers qui ont un impact sur le disfonctionnement.
+2  LE PLAN D AUDIT : Qui, quelles activités et quand avec les guides d’entretien (permet de remplir les infos à collecter, fil conducteur)
+4 LE RAPPORT D’AUDIT : Synthèse de l’audit qui permet de formuler les observations faites
+5 LA RECHERCHE DE SOLUTIONS (améliorations, groupe de travail)
+</t>
+        </is>
+      </c>
       <c r="P60" t="n">
         <v>1.67</v>
       </c>
@@ -2999,7 +3866,22 @@
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Les documents qui pourraient nous aider à la préparation de l’audit, sont :
+Les commandes fournisseur
+Le support des inventaires ciblés
+Les KPI d’analyse des ventes par produits et clients
+Un comparatif N-1 des ventes .
+Une analyse des volumes de vente par client (identification précise).
+Les fiches de postes de la chaîne logistique et magasin
+</t>
+        </is>
+      </c>
       <c r="P61" t="n">
         <v>2.5</v>
       </c>
@@ -3040,7 +3922,36 @@
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Le Responsable des approvionnements
+Les préparateurs de commande
+Les vendeurs comptoir
+Le guide d’entretien pour le responsable des appros se fera de la façon suivante :
+Présentation
+Définition des missions / Avec quels services interaction ?
+Combien de personnes sur le poste 
+Une journée type
+Quels sont les axes d’amélioration selon lui
+Comment procède les autres agences ? Les bonnes pratiques ?
+Fréquence des points avec les équipes commerciales et logistique.
+Quels sont les outils utilisés 
+La formation est-elle ok 
+Quelles actions en cas de disfonctionnement (rupture et autres)
+Comment sont faits les contrôles.
+Il y a-t-il un process de réappro ? Est-il connu et appliqué
+Quels sont les moyens de contrôle à dispostion ?
+Quels sont les changements dans l’organisation de l’agence sur les 6 derniers mois ?
+Qui intervient dans la chaine d’appro et gestion du stock
+Les acteurs ?
+</t>
+        </is>
+      </c>
       <c r="P62" t="n">
         <v>5</v>
       </c>
@@ -3083,7 +3994,21 @@
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Au cours de cet audit concernant notre taux de service sur les produits A et spécifiquement sur les spots encastrables Led nous avons pu constaté la connaissance (cycle complet) du processus des appros et des outils
+Les axes de progrès se situent dans un suivi plus régulier des indicateurs à disposition (tableaux de bord, alerte système)
+Ainsi que de la mise à jour des nouveaux seuils d’appros en fonction des éléments cités ci-dessus .
+</t>
+        </is>
+      </c>
       <c r="P63" t="n">
         <v>2.5</v>
       </c>
@@ -3123,7 +4048,19 @@
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Suivi régulier des indicateurs :
+                 Méthode :                                     Main d’œuvre :
+Milieu :                                                                                     Problème à résoudre
+                      Matériel :                                      Matière : 
+</t>
+        </is>
+      </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
@@ -3165,7 +4102,21 @@
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Pour le suivi plus régulier des indicateurs à disposition (tableaux de bord, alerte système) : non application de la procédure prévue au quotidien.
+Rappel de la règle et formalisation pour application de celle-ci à horaire fixe.
+La mise à jour des nouveaux seuils d’appros : ne savait pas qu’il devait le faire
+Rappel de la fiche de poste,  formation complémentaire sur l’outil ainsi que sur les personnes impliquées dans le process.
+</t>
+        </is>
+      </c>
       <c r="P65" t="n">
         <v>1.67</v>
       </c>
@@ -3207,7 +4158,34 @@
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Nous réalisons dans un premier temps une analyse SWOT pour identifier les risques :
+Retards de livraisons ponctuels
+Demande supérieure au stock disponible ponctuelle
+Retards de livraisons répétés
+Demande supérieure au stock disponible répétée / prolongée
+Pas assez de place disponible pour le stockage
+Baisse de disponibilité des produits (= Baisse de l’étendue de la gamme)
+Baisse de la satisfaction clients
+Baisse du Chiffre d’Affaires
+Baisse de la réputation de l’entreprise
+Baisse de la fidélité de la clientèle
+Baisse des parts de Marché de l’entreprise
+Baisse des conditions d’approvisionnement auprès des fournisseurs
+Augmentation du BFR (= Fragilisation économique de l’entreprise)
+Licenciements économiques
+Faillite de l’entreprise
+Établissons ensuite la matrice de criticité des risques :
+</t>
+        </is>
+      </c>
       <c r="P66" t="n">
         <v>7.5</v>
       </c>
@@ -3249,7 +4227,27 @@
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Un audit peut être déclenché par la direction, le comité de direction ou un responsable de service ou de Business Unit.
+Ici l’audit pourrait être mendaté par :
+Le directeur général
+Le comité de direction
+Le directeur Supply Chain
+Le directeur Service Client
+Le mandataire désigne le(s) auditeur(s) qui seront responsables de mener à bien la mission d’audit. Il peut s’agit d’auditeurs internes, c’est-à-dire des salariés de l’entreprise qui ont un regard neutre vis-à-vis des opérations de l’entreprise : membres du service qualité ou du service contrôle interne par exemple.
+Il peut également s’agit d’auditeurs externes, comme un cabinet de conseil ou d’audit.
+L’auditeur est avant tout choisi pour sa neutralité vis-à-vis des opérations de l’entreprise, c’est-à-dire qu’il n’existe pas de lien de subordination direct entre l’auditeur et les services audités, ni de conflits d’intérêts.
+L’auditeur doit de plus démontrer une bonne connaissance du secteur ou du métier concerné, ainsi que des qualités humaines d’écoute et de communication.
+</t>
+        </is>
+      </c>
       <c r="P67" t="n">
         <v>10</v>
       </c>
@@ -3291,7 +4289,38 @@
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes de l’audit sont :
+La préparation de l’audit : l’auditeur définit le champ et le périmètre de l’audit. Il mène une analyse documentaire, formalise notamment le plan d’audit et le guide d’entretien
+La réalisation de l’audit : l’auditeur procède à des observations sur le terrain et mène des entretiens en face à face. L’auditeur peut également animer des groupes de travail auprès des services audités.
+La conclusion de l’audit : l’auditeur rédige le rapport d’audit qui lui permet de formuler les observations factuelles et quantifiées réalisées au cours de l’audit, mais aussi les points forts, les points faibles et les écarts.
+La recherche de solutions d’améliorations : Des solutions aux problèmes identifiés sont formulées. Le client valide les solutions proposées pour procéder à leur mise en œuvre à travers un plan d’action.
+Planning prévisionnel de l’audit :
+13 février : l’auditeur est sélectionné
+20 février : le contrat d’audit est formalisé et validé par les parties
+23 février : l’auditeur débute sa mission d’audit
+3 mars : La rédaction du plan d’audit est terminée
+6 mars : La rédaction du guide d’entretien est terminée
+6 au 17 mars : Observations sur le terrain et premiers entretiens en face à face
+20 au 24 mars : Entretiens en face à face d’approfondissement et observations complémentaires
+30 mars : La rédaction du rapport d’audit est terminée
+31 mars : Le client accuse bonne réception du rapport d’audit 
+Matrice RACI :
+Légende :
+R : Réalisateur
+A : Autorité
+C : Consultés
+I : Informés
+</t>
+        </is>
+      </c>
       <c r="P68" t="n">
         <v>10</v>
       </c>
@@ -3331,7 +4360,21 @@
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Un levier de la performance en entreprise est en relation avec la structure organisationnelle. Dans le cadre de l’audit, il est ainsi primordial de vérifier l’existence et la mise à jour régulière des outils concernés : Organigrammes hiérarchiques, fonctionnels et/ou matriciels, les fiches de poste les fiches de mission, les contrats de travail, les matrices RACI réalisées par l’entreprise, les cartographies des processus opérationnels, supports et de pilotage.
+Un deuxième levier relatif à l’efficacité opérationnelle s’appuie sur le savoir-faire propre à l’entreprise décrit dans les documents suivants qu’il convient de consulter : les manuels d’organisation, les procédures, les modes opératoires et autres instructions, les guides de bonnes pratiques ou encore le règlement intérieur.
+En complément, l’existence d’un système d’amélioration continue doit être vérifiée : des outils spécifiques tels que la Roue de Deming doivent être consultés afin d’étudier l’adéquation entre les outils utilisés, les objectifs fixés et les moyens pour y parvenir.
+Enfin, les systèmes d’informations de l’entreprises (CRM, ERP, etc…) et les éventuels outils de Workflow nécessaires à la bonne traçabilité de l’information doivent être vérifiés.
+Seront également consultés tous documents spécifiques à l’activité : tableaux de bords logistiques, rapports d’inventaires et le cas échéant les comptes rendus des réunions et d’audit précédents
+La finalité consiste à obtenir des données précises et factuelles sur les raisons du déclenchement de l’audit, et permettra au cours de l’audit d’identifier d’éventuels écarts entre les prescriptions et les réalisations. Cela permet également d’identifier d’éventuelles situations non nominales ou à risque et de vérifier leur bonne prise en compte par l’entreprise.
+</t>
+        </is>
+      </c>
       <c r="P69" t="n">
         <v>10</v>
       </c>
@@ -3372,7 +4415,21 @@
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Personnes à auditer :
+Responsable Achats
+Responsable Supply-Chain
+Responsable Service Client
+Guide d’entretien : Responsable Achats
+</t>
+        </is>
+      </c>
       <c r="P70" t="n">
         <v>6.67</v>
       </c>
@@ -3415,7 +4472,26 @@
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+L’entreprise montre une organisation rigoureuse et a démontré la mise en place d’outils robustes lui permettant une bonne vision des différents flux, ainsi qu’un reporting en temps réel quantifié et détaillé. 
+Nous soulignons une bonne compréhension et une bonne application des procédures. Le personnel de l’entreprise se montre impliqué et réactif au quotidien. Nous notons une bonne communication entre les différents services, ainsi qu’entre les différents postes au sein de chaque service.
+Processus Flux Supply-Chain:
+Ecarts : Les seuils d’alertes du niveau des stocks mis en place sont inférieurs aux recommandations du service approvisionnements
+Le délai entre l’alerte du niveau des stocks et l’envoi des commandes de réapprovisionnement est supérieur aux attentes du service approvisionnements
+Points forts : Respect strict des procédures et normes de sécurité liées à la manutention
+Points sensibles : Le matériel de mécanisation des flux logistiques est vieillissant et diminue en performances
+La disposition des unités de stockage n’est pas optimisée et conduit à une perte d’espaces de stockage
+</t>
+        </is>
+      </c>
       <c r="P71" t="n">
         <v>10</v>
       </c>
@@ -3455,7 +4531,33 @@
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Ecart: Les seuils d’alertes du niveau des stocks mis en place sont inférieurs aux recommandations du service approvisionnements
+Méthode				Main Œuvre
+Absence modop 
+suffisamment détaillé					Manque connaissances techniques
+Milieu									Pb : Seuils Alertes trop bas
+Système trop complexe		N/A
+Matériel				Matière
+Ecart: Le délai entre l’alerte du niveau des stocks et l’envoi des commandes de réapprovisionnement est supérieur aux attentes du service approvisionnements
+Méthode				Main Œuvre
+Procédures manuelles
+Pas adaptées			Pas de personnel qualifié en intégration de solutions SI
+					Utilisateurs pas formés
+Milieu						Pb : Délai trop grand entre alerte &amp; commande
+Absence d’interfaces				N/A
+Entre différents SI
+Absence systèmes de 
+Workflow
+Matériel				Matière
+</t>
+        </is>
+      </c>
       <c r="P72" t="n">
         <v>8.33</v>
       </c>
@@ -3497,7 +4599,31 @@
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Ecart: Les seuils d’alertes du niveau des stocks mis en place sont inférieurs aux recommandations du service approvisionnements
+Causes :
+ Trop grande complexité des solutions informatiques du pilotage logistique
+Incapacité à paramétrer correctement le système WMS (Warehouse Management System)
+Solution : 
+Faire appel à un consultant expert dans la solution WMS utilisée pour paramétrage correct.
+Ecart: Le délai entre l’alerte du niveau des stocks et l’envoi des commandes de réapprovisionnement est supérieur aux attentes du service approvisionnements
+Causes :
+Absence d’interfaçage entre le WMS (Warehouse Management System) et le module Achats de l’ERP utilisé par le service approvisionnement
+Vérifications manuelles et suivi dans des fichiers Excel qui prennent trop de temps
+Validations des actions par emails en dehors du système d’information
+Solution : 
+Internalisation des étapes de validation dans le système par Workflows d’approbations
+Faire appel à un consultant expert dans l’interfaçage de la olution WMS avec l’ERP utilisé 
+</t>
+        </is>
+      </c>
       <c r="P73" t="n">
         <v>6.67</v>
       </c>
@@ -3871,7 +4997,26 @@
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Risque de rupture de stock : Majeur
+Probabilité : Très probable en raison des flux tendus
+Conséquence : Significative car peut entrainer une perte de valeur et de crédibilité pour l’entreprise
+Risque de mécontentement du client : Critique
+Probabilité : Très probable en raison de la demande récurrente pour ces produits
+ Conséquence : Grave car le client risque de ne plus faire confiance à ce fournisseur
+Risque de perte de client : Critique
+Probabilité : Très probable
+Conséquence : Catastrophique pour la réputation et survie de l’entreprise à long terme qui base ses valeurs justement sur la qualité et la fiabilité de son service 
+</t>
+        </is>
+      </c>
       <c r="P82" t="n">
         <v>10</v>
       </c>
@@ -3913,7 +5058,19 @@
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+C’est le directeur de l’agence de Toulon qui mandate l’audit car son agence ne remplis pas les engagements de fiabilité et de partenariat avec ses clients prônés par l’entreprise distrelec (« Chez DISTRELEC, nous mettons tout en œuvre pour faciliter, au quotidien, la vie de nos clients »).
+Pour cette situation, un auditeur externe sera choisi car il n’y a pas d’auditeur salarié professionnellement formé au sein de l’entreprise. En effet, ce travail nécessite une expertise professionnelle pour être suffisamment compétent et indépendant.  
+</t>
+        </is>
+      </c>
       <c r="P83" t="n">
         <v>10</v>
       </c>
@@ -3955,7 +5112,44 @@
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes d’un audit organisationnel sont :
+Le déclanchement (par le commanditaire de l’audit au 30 Janvier)
+1ère Étape : la préparation : (1er Février au 15 Février)
+Le plan d’audit
+Identification des informations à récolter
+Le guide d’entretien
+2ème Étape : le recueil d’information (15 Février au 28 Février)
+Les entretiens face à face
+Animations de groupe
+Observation sur le terrain
+3ème étape : Faire la synthèse de l’audit : (1er Mars au 15 Mars)
+Rédaction du rapport d’audit
+Observations pour le commanditaire
+4ème étape : Trouver des solutions (15 Mars au 31 Mars)
+Présenter les solutions d’amélioration
+Mise en œuvre
+La Matrice RACI permet d’identifier « qui fait quoi ? »
+Ici nous voulons identifier tous ceux qui ont une incidence sur le stock de marchandise :
+Vendeur Comptoir Réceptionniste :  
+Conseille, enregistre la commande, prépare le matériel, délivre et enregistre la commande délivrée sur le système d’information. En cas de rupture de stock le vendeur-comptoir peut proposer un produit de remplacement ou lancer une commande d’appro (via le système d’information) qui sera livrée ou mise à disposition du client.
+Préparateur de commande :
+Prépare les commandes informatiques. 
+Le réceptionniste : 
+Récupère les bons de commandes, réceptionne et range le matériel réceptionné dans le hangar.
+Responsable Achat 
+Responsable Logistique
+Expeditionnaires
+</t>
+        </is>
+      </c>
       <c r="P84" t="n">
         <v>6.67</v>
       </c>
@@ -3995,7 +5189,22 @@
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Pour bien s’imprégner du fonctionnement de l’entreprise et comprendre tout le travail prescrit pour garantir son bon fonctionnement et ses processus, il convient de récupérer tous les documents pertinents : 
+Manuel Qualité (Si distrelec est certifiée)
+Manuels de Procédures de prises de commande, de réapprovisionnement des stocks (avec instruction sur les par-stock)
+Manuel d’instruction du logiciel de gestion de stock, 
+Attestation de formation sur le logiciel de gestion de stock
+Manuel de mode opératoires de gestion des stock
+Descriptifs de postes, organigrammes, fiche de postes, fiche de mission des vendeurs de comptoir, des réceptionnistes et des préparateurs de commandes ainsi que tous ceux qui sont impliqués dans la gestion et la fluctuation des stocks
+</t>
+        </is>
+      </c>
       <c r="P85" t="n">
         <v>5</v>
       </c>
@@ -4036,7 +5245,39 @@
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Un vendeur comptoir, un préparateur de commande, un réceptionniste marchandise.
+Guide d’entretien pour préparateur de commande : 
+Audité : Paul Dupond – Préparateur de commande
+Auditeur : Ivan Feij
+Date de l’audit : 13 Février 2023
+Processus audités :
+Connaissance de son poste : 
+Points à vérifier : Responsabilités, objectifs, attente de la direction, valeurs de l’entreprise
+Questions :
+Connaissance des produits en stock 
+Points à vérifier : Les différentes lampes LED
+Connaissances des du processus de prise de commande
+Points à vérifier : respects des étapes, précisions 
+Questions : 
+Gestion des Stocks :
+Connaissances de la fluctuation des stocks et des produits en flux tendus
+Questions :
+Connaissance du logiciel de gestion du stock :
+Points à vérifier : facilité d’utilisation de l’interface, formation du collaborateur, contraintes ou autres difficultés d’utilisation
+Questions :
+Environnement de travail du collaborateur :
+Condition de travail, horaires, niveau de charge de travail, outils mis à disposition
+Questions :
+</t>
+        </is>
+      </c>
       <c r="P86" t="n">
         <v>6.67</v>
       </c>
@@ -4079,7 +5320,26 @@
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Point fort : 
+Les employés concernés ont tous suivi la formation pour l’utilisation du logiciel de gestion des stocks. D’après mes observations sur le terrain, ils savent tous s’en servir correctement que ce soit lors d’une prise de commande au comptoir ou par internet. 
+Points sensibles :
+Le matériel informatique informatique mis à disposition a plus de cinq ans
+Il n’y a de gros problèmes de chauffage des locaux (bureaux et entrepôts), la chaudière semble ne pas fonctionner correctement en permanence
+Écarts : 
+Compte tenu du froid, en cas de forte affluence de commandes, le préparateur de commande peut souffrir de des basses températures lorsqu’ils passe ses commandes sur le clavier du terminal
+Le même operateur a parfois du mal à suivre ce qui a été bien saisi sur son ordinateur car il « crashe » reguliéèreement du fait de sa vetusté.
+</t>
+        </is>
+      </c>
       <c r="P87" t="n">
         <v>7.5</v>
       </c>
@@ -4119,7 +5379,20 @@
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Main d’œuvre
+Méthode
+Milieu
+Matériel
+Matière
+</t>
+        </is>
+      </c>
       <c r="P88" t="n">
         <v>0</v>
       </c>
@@ -4161,7 +5434,19 @@
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Renouveler le matériel informatique (Matériel, main d’œuvre)
+Changer la chaudière des batiments (Milieu)
+</t>
+        </is>
+      </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
@@ -4203,7 +5488,43 @@
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Evaluation des risques
+Les clients passent chercher le matin les produits dont ils ont besoin dans la journée 
+Risque =&gt; 
+Quantité en stock insuffisante 
+Insatisfaction client 
+Baisse des ventes 
+Baisse du CA
+La gestion du stock se fait quasiment en flux tendu 
+Risque =&gt; 
+Rupture de stock fournisseur
+Insatisfaction client
+Baisse des ventes 
+Baisse du CA
+Marques et modèles de produits A très nombreux 
+Risque =&gt; manque de place dans le stock
+Gestion du stock (flux tendu) surveillé chaque jour 
+Risque =&gt;
+arrêt maladie/ absence du salarié en charge des commandes  
+rupture de stock
+Insatisfaction client
+Baisse des ventes 
+Baisse du CA
+Gestion du stock via système d’information
+Risque =&gt;
+Panne du système =&gt; rupture de stock =&gt; insatisfaction client =&gt; baisse des ventes et du chiffre d’affaires
+Matrice de criticité des risques
+</t>
+        </is>
+      </c>
       <c r="P90" t="n">
         <v>7.5</v>
       </c>
@@ -4245,7 +5566,19 @@
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L’audit est mandaté par le Directeur, le comité de Direction ou le responsable de la Business Unit. Dans le cas de Distrelec c’est le Directeur qui déclenche l’audit.
+L’audit sera réalisé par une société externe située à Toulon nommée « Audit performance ».
+L’auditeur est choisi sur son expérience d’une vingtaine d’année dans la réalisation d’audit auprès d’entreprise du même secteur d’activité. Ils viennent d’ailleurs d’auditer il y a quelques mois le principal concurrent de Distrelec. Ils connaissent donc parfaitement le fonctionnement de ce type d’entreprise et ses bonnes pratiques. Ils sont reconnus dans la région pour leur sérieux avec un bouche à oreille positif. </t>
+        </is>
+      </c>
       <c r="P91" t="n">
         <v>10</v>
       </c>
@@ -4287,7 +5620,51 @@
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes de l’audit :
+le déclenchement de l’audit =&gt; par qui ? le Directeur pour Distrelec 
+Lors de la constatation d’un dysfonctionnement =&gt; constatation à 10 reprises d’une rupture de stock sur l’un des produits A, ce qui a engendré le remplacement par un produit équivalent dans une autre marque et provoqué le mécontentement des clients.
+Identification des risques =&gt; 
+Baisse des ventes 
+Baisse du CA
+Atteinte de la réputation de l’entreprise (commentaires négatifs sur les réseaux sociaux et Google, bouche à oreille négatif…)
+ETAPE 1 :
+Préparation de l’audit :
+Planifier : qu’est-ce qu’on audit ? Qui et quand va-t-on réaliser l’audit ?
+Identifier les informations à recueillir
+Analyser les éléments qui ont déclenché l’audit (KPI,commanditaire…)
+Analyser les risques 
+Analyse documentaire (procedure, fiche de poste, instructions, …)
+Ensuite réaliser un plan d’audit =&gt; qui allons-nous auditer ? quand allons-nous auditer ? Quelles sont les activités que nous allons auditer ?
+Réalisation du Guide d’entretien
+Définir les objectifs et les informations à récolter
+ETAPE 2
+Recueillir les informations sur le terrain 
+ Observer les collaborateurs sur le terrain lorsqu’ils sont à leur poste de travaille pour analyser le déroulement de l’activité et déceler des écarts
+Réaliser un entretien en face à face 
+Analyser les dysfonctionnements
+ETAPE 3
+Réaliser la synthèse de l’audit =&gt; rédiger un rapport qui permettra au client de mettre en place un plan d’action 
+ETAPE 4
+Rechercher des solutions d’amélioration 
+PLANNING DE L’AUDIT
+Démarrage semaine 1 = 13 février 2023
+Fin = 31/03/2023
+MATRICE RACI
+R=&gt; en charge de la tache ou du projet
+A=&gt; celui qui valide 
+C=&gt; qui peut aider ou apporter son expertise
+I =&gt; celui qui doit être informé
+</t>
+        </is>
+      </c>
       <c r="P92" t="n">
         <v>10</v>
       </c>
@@ -4327,7 +5704,36 @@
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Pour préparer cet audit les documents suivants pourrait nous aider :
+Documents permettant d’identifier les leviers d’efficacité structurelles 
+L’organigramme de la société et de l’agence
+Les fiches de poste du préparateur de commande et du vendeur
+Les missions de chaque collaborateur de l’agence
+La matrice RACI  pour visualiser les rôles de chacun dans l’entreprise et à leur poste de travail
+La cartographie des processus pour prendre connaissance des flux d’activité dans l’entreprise et notamment celui de la gestion des stock sur le produit A
+Les processus de pilotage 
+Documents permettant d’identifier les leviers d’efficacité opérationnelle
+Manuel d’organisation
+Les procédures (qui fait quoi ?)
+Les modes opératoires 
+Le guide des bonnes pratiques / gestion des insatisfaction client
+Les contrats de travail
+Les instructions
+La roue de DOMING pour comprendre le processus d’amélioration continue
+Le système d’information utilisé (CRM/ERP/système de gestion des stocks..)
+Document permettant d’identifier les leviers d’efficacité humains :
+Résultats d’enquête de satisfaction interne
+Processus de QVT (qualité de vie au travail)
+Les valeurs de l’entreprise
+</t>
+        </is>
+      </c>
       <c r="P93" t="n">
         <v>10</v>
       </c>
@@ -4368,7 +5774,30 @@
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+3 personnes à auditer 
+Un vendeur/commercial (de l’agence de TOULON)
+Un préparateur de commande
+Le responsable du stock
+GUIDE D’ENTRETIEN :
+Auditeur : Géraldine (société Audit Performance)
+Personne auditée : Marc Dupuis
+Fonction : commercial sédendaire
+Service : commercial 
+Date de l’audit : le 13 février 2023
+Important : utiliser les techniques suivantes pendant l’entretien =&gt; 
+Technique QQOQCP
+Technique de la pelote (rebondir sur les réponses de l’audité pour creuser plus profondément)
+Technique de l’entonnoir (question générales aux plus précises)
+</t>
+        </is>
+      </c>
       <c r="P94" t="n">
         <v>10</v>
       </c>
@@ -4411,7 +5840,18 @@
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P95" t="n">
         <v>7.5</v>
       </c>
@@ -4451,7 +5891,15 @@
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P96" t="n">
         <v>6.67</v>
       </c>
@@ -4493,7 +5941,17 @@
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P97" t="n">
         <v>10</v>
       </c>
@@ -4535,7 +5993,23 @@
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Rupture de stock :
+Mécontentement client : la probabilité d’un mécontentement est très probable, la conséquence peut est être grave. 
+Risque de perdre des clients :   il y a un fort impact client du fait du manque du produit à forte rotation (donc une grande majorité de client). Le risque de départ des clients est majeur, d’autant plus qu’il est difficile de faire revenir un client qui est partie.
+Risque de perdre du chiffre d’affaires : concurrence importante avec des produits identiques.
+Si on utilise la matrice de criticité, le risque de perte de client est très probable, et les conséquences graves. Le risque est donc critique
+Le risque de perdre du CA, est très probable et la conséquence catastrophique. Le risque est donc critique
+</t>
+        </is>
+      </c>
       <c r="P98" t="n">
         <v>5</v>
       </c>
@@ -4577,7 +6051,20 @@
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L’audit est mandaté par le directeur de l’entreprise ou la commission/le comité de direction
+L’audit est réalisé par un professionnel indépendant, un auditeur ou une équipe d’audit. L’auditeur peut être interne ou externe à l’entreprise. Dans les grandes entreprises (exemple BNPP) il y a un département ‘inspection général’, qui se charge de faire les audits.
+L’auditeur doit être objectif et avoir une vision globale de l’activité/métier. Il est choisi par le décideur.
+</t>
+        </is>
+      </c>
       <c r="P99" t="n">
         <v>7.5</v>
       </c>
@@ -4619,7 +6106,36 @@
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+L’audit se fait en 4 phases
+1-La préparation : qui faut-il auditer ?, à quel moment, sur quel activité/processus. 
+Cette étape permet de déterminer le champ d’audit, le périmètre (lieu, service, les personnes à auditer). Puis d’établir le plan d’audit.
+A cette étape, il y a l’analyse documentaire (analyse du travail prescrit et d’état des lieux) , la formalisation du plan d’audit ainsi le guide d’entretien pour les entretiens face à face.
+2- Recueil des informations sur le terrain avec :
+Phase d’observation pour voir ce qui est réalisé, voir s’il y a des écarts entre le prescrit et le réalisé
+ L’entretien face à face ,
+ Animation de groupe
+3- La synthèse de l’audit : pour formuler les observations dans un rapport d’audit pour le commanditaire
+4- Recherche de solution d’amélioration
+Planning de l’audit
+Préparation : (durée d’environ 20 jours). Plan d’audit à remettre le 20 février
+Information terrain : observation (7jours) – Entretien face à face (2jours) : fin des recueils terrain :28 fevrier
+Synthèse et solution : 31 mars
+Acteur et responsabilité :
+R esponsable, A autorité, C, consulter, I informer. 
+ Service approvisionnement :  l’approvisionneur
+Service gestion des stocks : le réceptionnaire
+Service gestion des fournisseurs : responsable du service achat
+</t>
+        </is>
+      </c>
       <c r="P100" t="n">
         <v>5</v>
       </c>
@@ -4659,7 +6175,19 @@
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Il y a l’analyse du travail prescrit :  les documents que l’entreprise pourraient avoir sont : 
+les fiches métiers de réceptionneurs, de l’approvisionneur, du responsable des achats ; les guides de bonne pratiques de ces services, guides opératoires,  les chartes d’entreprise.
+Puis l’analyse de l’état des lieux avec des documents tels que :
+Les tableaux de bord sur les chiffres des commandes, le détail des stocks , les comptes rendus de réunion du service gestion de stock et du service achat, les précédents rapport d’audits
+</t>
+        </is>
+      </c>
       <c r="P101" t="n">
         <v>10</v>
       </c>
@@ -4700,7 +6228,33 @@
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Service approvisionnement :  l’approvisionneur
+Service gestion des stocks : le réceptionnaire
+Service gestion des fournisseurs : responsable du service achat
+Guide d’entretien pour le responsable du service achat
+Point à vérifier
+1 -Suivi des délais de livraison
+2- Analyse des anomalies à la réception
+3- Communication et échanges sur les grilles de tarifs et de délais
+1-Sur quel critères effectuez vous les achats ?
+Comment suivez-vous les livraisons ?
+ Comment savez-vous la quantité à acheter ?
+2-Comment vérifiez-vous la marchandise ?
+que faites-vous en cas d’anomalies ?
+3-Quelles sont vos outils de communication avec les autres services ?
+Quelles sont les informations que vous leurs communiquez ?
+D’après vous comment expliquez-vous les ruptures de stocks ?
+Quelles suggestions pourriez-vous faire pour résoudre ce dysfonctionnement ?
+</t>
+        </is>
+      </c>
       <c r="P102" t="n">
         <v>6.67</v>
       </c>
@@ -4743,7 +6297,27 @@
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Conclusion 
+Point fort :
+Bonne connaissance de l’outil utilisé pour l’approvisionnement
+2 Ecarts :
+ Des documents obsolètes sont encore en circulation (fiche de poste, grille des tarifications)
+ erreurs humaines dans l’outil d’approvisionnement
+2 Points  sensibles
+Pas de questionnaire de satisfaction envoyé
+Les actions de communication avec les services gestion de stock ne sont pas formalisées
+</t>
+        </is>
+      </c>
       <c r="P103" t="n">
         <v>10</v>
       </c>
@@ -4783,7 +6357,27 @@
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+erreurs humaines dans l’outil d’approvisionnement
+Main d’œuvre : pas formé en informatique
+Matière : Informatique
+Methode : le pas à pas n’est pas suivi
+Matériel : Ordinateur ancien
+Milieu : très bruyant
+Document obsolètes (grille des tarifications)
+Main d’œuvre : faible skills en communication, n’aime pas le téléphone
+Matière : informatique
+Methode : la mise à jour mensuelle des grilles n’est pas faites
+Matériel : Ordinateur / téléphone
+Milieu : Bruyant, sans bureau
+</t>
+        </is>
+      </c>
       <c r="P104" t="n">
         <v>5</v>
       </c>
@@ -4825,7 +6419,24 @@
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Les employées sont dans un environnement bruyant qui ne laisse pas de place à la formation et au temps pour les taches administratives
+Des documents obsolètes sont encore en circulation (fiche de poste, grille des tarifications)
+formation parler au téléphone
+formation informatique
+ erreurs humaines dans l’outil d’approvisionnement
+fiche pas à pas à cocher obligatoirement à chaque fois
+formation informatique 
+investir dans un ordinateur recent</t>
+        </is>
+      </c>
       <c r="P105" t="n">
         <v>5</v>
       </c>
@@ -4867,7 +6478,24 @@
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Contexte : Le produit A a été en rupture 10 fois sur le mois de janvier mais il a été remplacé par un produit équivalent en fonction mais différent visuellement
+Les risques identifiés pour l’agence Distrelec de Toulon par ces ruptures : 
+Client : Perte des clients électriciens au profit des concurrents distributeurs car ils veulent un fournisseur fiable pour le produit A
+Chiffre d’affaire : même si le produit équivalent et vendu à a place de A, il y a un risque de baisse des vente sur les autres articles secondaires proposée (achats de soutient)
+Sur notoriété de l’entreprise Distrelec auprès des client sur sa gestion des stocks et son organisation
+Confiance de la direction général centrale pour l’agence de Toulon avec un risque de réorganisation mandatée 
+Risque de notoriété de la part du fournisseur sur la gestion d’achats de la part du l’agence de Toulon
+</t>
+        </is>
+      </c>
       <c r="P106" t="n">
         <v>10</v>
       </c>
@@ -4909,7 +6537,20 @@
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse :  
+L’audit est mandaté par le directeur de l’agence de Toulon.
+La réalisation de l’audit peut se faire par une agence d’audit extérieure à la société. L’idéal serait une société qui connaissent déjà la société Distrelec pour les avoir audité sur d’autres agences. Les questions en seront que plus précises sur l’activité.
+L’auditeur doit avoir été formé à l’activité d’audit, selon les référentiels existant (ISO, Ecocert, …) et idéalement sur un référentiel existant sur une activité de vente et de distribution de produits.
+</t>
+        </is>
+      </c>
       <c r="P107" t="n">
         <v>10</v>
       </c>
@@ -4951,7 +6592,39 @@
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Réalisation d’un plan d’Audit : 
+Analyser l’élément déclencheur et les risques afférents
+Préparation du plan d’audit : quel processus auditer, qui rencontrer, dans quelles conditions le réaliser, visites à prévoir
+Etude documentaire sur la base des documents à disposition (ancien rapport d’audit, fiche processus, fiche de poste, indicateurs de performances mesurés)
+Préparation du guide d’entretien
+Recueil d’information :
+Déroulement du processus en visite ou sur le poste de l’audité
+Entretien avec l’audité : déroulé et observation de l’activité par rapport au processus. Observer les dysfonctionnements constatés avec l’audité, les difficultés, l’environnement de travail, le ressenti, la compréhension des objectifs, la relation avec la hiérarchie)
+Synthèse de l’audit :
+Observation factuelles et rédaction du rapport
+Solution et plan d’amélioration
+A établir par la direction de l’agence selon les conclusions du rapport
+Les acteurs de l’audit :
+L’approvisionneur
+Le responsable achat et gestion du stock
+Le réceptionnaire
+La direction de l’agence
+Le client (pas de responsabilité mais présent dans la matrice des processus)
+Le fournisseur (pas de responsabilité mais présent dans la matrice des processus)
+Le service commercial
+Le service RH (support)
+Ci-dessous le RACI pour le processus achats
+</t>
+        </is>
+      </c>
       <c r="P108" t="n">
         <v>8.33</v>
       </c>
@@ -4991,7 +6664,22 @@
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Les documents des fiches de processus contenant notamment : les outils d’aide à la décision d’achats (seuil de stock, estimation des besoins, les données des fournisseurs)
+Les procédures de réception des commandes fournisseur notamment sur le scan du produit à réception et l’emplacement)
+Les KPI utilisés pour la performance
+Les audits précédents (interne ou externe)
+Les procédures de saisies dans le système d’information
+Dans les processus, les éléments d’amélioration continu qui auraient été mis en place
+Le fiches de poste avec les objectifs précisés
+</t>
+        </is>
+      </c>
       <c r="P109" t="n">
         <v>7.5</v>
       </c>
@@ -5032,7 +6720,27 @@
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Le réceptionnaire
+Le responsable des achats
+L’approvisionneur
+Guide d’entretien pour l’approvisionneur
+Introduction :
+Objet de l’audit et sa finalité
+Le temps imparti
+La confidentialité et un audit sur l’organisation, pas sur la personne
+La confiance sur l’auditeur et son expérience
+Conclusion :
+Remerciement et présenter qu’il y aura une rédaction d’un rapport qui sera présenté à la direction pour établir un plan d’amélioration afin que ces ruptures puissent être résolues.
+</t>
+        </is>
+      </c>
       <c r="P110" t="n">
         <v>8.33</v>
       </c>
@@ -5075,7 +6783,27 @@
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Le passage de commande au fournisseur:
+Les écarts
+L’indicateur de seuil de stock est trop bas (5) car ne correspond pas à la quantité journalière moyenne des ventes observées sur 1 mois (7)
+Le délai de livraison enregistré dans le système ne correspond pas à celui de l’accusé de réception du fournisseur dans 6 cas sur 7 (observation entre commande passée et accusé de commande reçu).
+Les points sensibles
+Les date de réception (livraison) peuvent être décalée par rapport à celle annoncée initialement dans l’ARC de 1 ou 2 jours, ce qui en flux tendus peut être sensible
+le KPI : réception en quantité et à temps a dévié 1 fois sur les mois de janvier et février 
+Point fort
+L’initiative et la réactivité dès la réception de la rupture par le fournisseur, pour mettre en place un approvisionnement sur le produit alternatif en remplacement du produit A.
+</t>
+        </is>
+      </c>
       <c r="P111" t="n">
         <v>10</v>
       </c>
@@ -5115,7 +6843,27 @@
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+5M problème à résoudre : indicateur de seuil trop bas
+Matériel : données difficiles à saisir dans le système (ouvrir plusieurs fenêtre)
+Matière : besoin de faire une statistique sur un temps long
+Main d’œuvre : besoin d’une personne supplémentaire pour établir les statistiques ventes et approvisionnement
+Méthodes : les ventes ne sont pas lissées, trop de variation saisonnière
+Milieu : peu de temps pour saisir l’information, pas de place pour stocker plus de quantités en stock de sécurité
+5M Problème à résoudre : délai de livraison différent entre commande et ARC
+Matériel : transporteur qui a une tournée ralongée
+Matière : problème de quantité du produit A chez le fournisseur
+Main d’œuvre : Commercial du fournisseur change souvent
+Méthodes : communication trop rare avec le fournisseur
+Milieu : ARC reçu 48h après commande trop tard pour un flux tendu 
+</t>
+        </is>
+      </c>
       <c r="P112" t="n">
         <v>10</v>
       </c>
@@ -5157,7 +6905,23 @@
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Indicateur de seuil trop bas :
+Nouvelle étude sur les besoins annuels avec le fournisseur et l’acheteur : augmenter le volume prévisionnel afin que le fournisseur prévoit ses productions
+Etablir une étude de rotation saisonnière du produit avec les clients électriciens et leur travaux afin d’anticiper ses variations
+Délai de livraison différent entre commande et ARC
+Demander un entretien avec le commercial ou sa direction pour établir un délai réaliste des livraison suite aux appels de commande (appels de quantités sur une commande ouverte annuel). Ce délai pourra servir au calcul des besoins annuel
+Etablir une communication immédiate avec le fournisseur sur ses alternatives de livraisons depuis ses autres usines.
+</t>
+        </is>
+      </c>
       <c r="P113" t="n">
         <v>10</v>
       </c>
@@ -5531,7 +7295,22 @@
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Il y a eu à plusieurs reprises une rupture de stock sur l’un de ces produits ce qui a engendré le remplacement par un produit équivalent dans une autre marque (mais visuellement un peu différent) et provoqué le mécontentement de nos clients. Cette situation engendre plusieurs risques 
+La rupture de stock n’est généralement pas appréciée par les consommateurs car elle les oblige à changer de décision d’achat et donc le risque c’est qu’ils changeront d’entreprises, ils vont reporter leur achat, ils peuvent même annuler l’achat. Cela aura des conséquences sur les délais de livraisons des chantiers. Ce qui donnera une mauvaise image sur l’entreprise et on lui collera l’étiquette d’une entreprise qui gère mal son stock. 
+Mauvaise image de marque : la rupture de stock répétée peut entraîner une mauvaise image de marque pour DISTRELECT, ce qui peut affecter la réputation de l'entreprise auprès de ses clients actuels et potentiels.
+Chute de la qualité du service : les clients pourraient juger la qualité du service de DISTRELECT insuffisante, ce qui peut entraîner une perte de clients fidèles et une baisse des ventes.
+Coûts supplémentaires : la rupture de stock peut entraîner des coûts supplémentaires pour DISTRELECT, tels que les coûts de transport et de stockage de produits de remplacement.
+</t>
+        </is>
+      </c>
       <c r="P122" t="n">
         <v>5</v>
       </c>
@@ -5573,7 +7352,20 @@
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L'audit est mandaté par le directeur de l'agence.
+L’audit devra être réalisée par un employé de l’agence qui maitrise les produits et qui maitrise la gestion des stocks.
+L’auditeur choisi doit maitriser le système de gestion de stock, doit connaitre la clientèle et ses attentes, doit être flexible f, doit avoir une aisance relationnelle et rédactionnelle, doit avoir une capacité à gérer les priorités et doit être objectif.
+</t>
+        </is>
+      </c>
       <c r="P123" t="n">
         <v>5</v>
       </c>
@@ -5615,7 +7407,28 @@
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Tout d’abord le responsable d’agence doit : 
+1) sélectionner l’auditeur qui répond aux critères, 
+2) définir le but de l’audit, calendrier et des ressources nécessaires, les résultats attendu en terme de business. 
+3) L'auditeur doit planifier les activités d'audit, préparer le questionnaire, et les produits sur les zones concernées.
+4) L'auditeur doit analyser les registres de stock, les contrats d'approvisionnement, les bons de commande, les fiches techniques des produits, la liste des fournisseurs.
+5 Discuter avec les employés la gestion du stock et proposer le questionnaire. 
+6) Analyser le terrain.
+7) Analyser les résultats des réponses au questionnaire. 
+8)Rédiger un rapport avec beaucoup de precisions.
+9) Discuter les résultats avec le responsable et les équipes. 
+10) Proposer un plan d’action et éventuellement aider l’équipe pour l’implémenter. 
+</t>
+        </is>
+      </c>
       <c r="P124" t="n">
         <v>1.67</v>
       </c>
@@ -5655,7 +7468,21 @@
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+On peut demander les documents relatifs à l'historique de la gestion des stocks (des données de ventes, des données de stocks, des KPIs, la liste des fournisseurs ...)
+Le document qui décrit le système des gestions de stocks, la procédure, les noms et les responsabilités de chaque personne dans l’équipe et leurs coordonnées 
+les fiches produits, les données d'approvisionnement, les contrats avec les fournisseurs, les fiches de suivi de la qualité, la liste des produits les plus vendus.
+ Les documents sur les habitudes des consommateurs, les produits les plus vendus, le retour des clients.
+Les documents sur l’agence, les règles de sécurités, les processus, les contrats, les garanties.
+En utilisant ces documents, DISTRELEC pourrait réaliser un très bon audit.
+</t>
+        </is>
+      </c>
       <c r="P125" t="n">
         <v>5</v>
       </c>
@@ -5696,7 +7523,23 @@
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Il s’agit d’un audit sur la gestion de stock. Donc nous allons auditer ; 1) Le responsable de stock. 2) Le responsable logistique 3) Le responsable de vente/ relation clientèle. 
+Je choisirai d’auditer le responsable logistique puisqu’il veille à ce que le transport des marchandises qu'il supervise se fasse dans les meilleures conditions possibles. Objectif numéro un : réduire les stocks, les délais et les coûts. C'est avant tout un organisateur et un manager. 
+D’abord je vais définir les objectifs de l'entretien : déterminer les informations clés que je souhaite obtenir
+Préparer la liste des questions en rapport avec son poste (Planification, approvisionnements, gestion de stocks et processus)
+Choisir le temps qui convient au mieux pour obtenir le plus de précisions
+Prendre les notes surtout des données pour les analyser 
+Evaluer les résultats surtout analyser les données et comprendre les forces puis les faiblesses.
+</t>
+        </is>
+      </c>
       <c r="P126" t="n">
         <v>3.33</v>
       </c>
@@ -5739,7 +7582,22 @@
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+La structure a sensiblement évolué depuis deux ans, on note un bon fonctionnement global et
+une efficacité de l’organisation.Pour conclure, notre audit de la gestion de stock a mis en évidence un point fort considérable, l’existence d’un processus de la gestion des sorties et entres très précis. Cependant, nous avons également identifié deux points sensibles : Tout d'abord, l’application de la méthode KANBAN dans ce contexte n’est pas forcément une bonne idée. Deuxièmement, le manque de la sensibilisation aux bonnes pratiques de la gestion de stock.  
+Enfin, nous avons également découvert deux écarts significatifs dans la gestion de stock. Tout d'abord, la présence de surstocks et une rupture de stock de certains produits très demandés. Et enfin le manque de communication avec les fournisseurs pour améliorer les approvisionnements.
+L’entreprise a pu faire des progrès mais doit quand même suivre l’action plan pour apporter des mesures correctives.
+</t>
+        </is>
+      </c>
       <c r="P127" t="n">
         <v>2.5</v>
       </c>
@@ -5779,7 +7637,17 @@
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Le problème de surstock est dû à une mauvaise planification et coordination entre les ventes, la logistique et la production, entre autres et au fait de ne pas attribuer la rotation appropriée à un produit.
+2)  La rupture de stock est causée par une mauvaise communication ou relations avec les fournisseurs et Une mauvaise gestion des personnes, des processus et de la technologie.
+</t>
+        </is>
+      </c>
       <c r="P128" t="n">
         <v>1.67</v>
       </c>
@@ -5821,7 +7689,20 @@
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Le problème de surstock est dû à une mauvaise planification et coordination entre les ventes, la logistique et la production, entre autres et au fait de ne pas attribuer la rotation appropriée à un produit.  = Solution et sa description :  
+1) Pour éviter le sur-stockage et l’impact financier qu’il entraine à l’entreprise, il faudra alors trouver le bon équilibre entre la rotation du stock et la fréquence d’approvisionnement. 2) Optimiser la gestion du stock. 
+3) Organiser des réunions régulièrement entre la logistique et la production pour donner de la visibilité. 
+La rupture de stock est causée par une mauvaise communication ou relations avec les fournisseurs et Une mauvaise gestion des personnes, des processus et de la technologie. Solution et sa description =&gt; Mettre en place des logiciels performants et user friendly pour faciliter la gestion des personnes et utiliser la technologie d’une façon optimale, discuter régulièrement avec les fournisseurs et leur envoyer des rapports par rapport aux produits les plus demandes.</t>
+        </is>
+      </c>
       <c r="P129" t="n">
         <v>1.67</v>
       </c>
@@ -6195,7 +8076,26 @@
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques engendrés par cette situation sont :
+Perte de CA, pour chaque rupture il y a perte de CA.
+Satisfaction client, risque sur le mécontentement.
+Perte de temps à chercher les produits, problème de place, temps de contrôle.
+Forte demande, risque de perte de client pour un concurrent.
+Risque humain, compétence et réactivité des préparateurs.
+Risque sur l’image de l’entreprise
+Il est intéressant d’évaluer ces risques en fonction de leur gravité et de leur probabilité. 
+Ainsi les risques 1,2,4 et 6 sont critiques car ils ont un impact direct sur la performance et la pérennité à moyen-long terme de l’entreprise.
+</t>
+        </is>
+      </c>
       <c r="P138" t="n">
         <v>10</v>
       </c>
@@ -6237,7 +8137,27 @@
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+C’est le directeur de l’agence de Toulon qui est le déclencheur de l’audit.
+Pour la réalisation de l’audit le directeur à choisit de mandater une société de consulting externe qui a déjà fait ses preuves pour l’entreprise dans de précédents audit sur les plans logistique et commercial pour Distrelec.
+L’auditeur peut être interne ou externe. Il doit cependant respecter les principes de bases de l’audit, qui sont :
+La confiance
+La neutralité 
+La transparence
+Le sérieux
+La confidentialité
+Les ressources et compétences
+Maitriser les étapes de l’audit (préparation, recueil d’information, Synthèse et recommandations)
+</t>
+        </is>
+      </c>
       <c r="P139" t="n">
         <v>10</v>
       </c>
@@ -6279,7 +8199,27 @@
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+L’audit organisationnel se compose de 4 étapes :
+La préparation
+Le recueil d’information
+La synthèse de l’audit
+Les recommandations 
+Le plan de l’audit fait partie de la phase de préparation. Pour le faire nous avons besoin de définir :
+L’élément déclencheur de l’audit
+Nous sommes le 30 janvier et sur le mois de janvier nous avons constaté à 10 reprises une rupture de stock sur l’un de ces produits ce qui a engendré le remplacement par un produit équivalent dans une autre marque (mais visuellement un peu différent) et provoqué le mécontentement de nos clients.
+Le champ de l’audit : Le magasin de distribution Distrelec de Toulon
+Le périmètre de l’audit : Gestion des stocks, gestion des approvisionnements
+</t>
+        </is>
+      </c>
       <c r="P140" t="n">
         <v>6.67</v>
       </c>
@@ -6319,7 +8259,18 @@
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+L’analyse documentaire est importante pour cette phase de préparation de l’audit. Nous allons utiliser deux types de documents. 
+Ce qui est prescrit : La cartographie des activités, fiches de poste, organigramme, fiches descriptives des processus, 
+Ce qui est de l’état des lieux : Les statistiques de ventes, le taux de rupture, la liste des fournisseurs, des anciens audits avec la même problématique dans d’autres agences de la société.
+</t>
+        </is>
+      </c>
       <c r="P141" t="n">
         <v>10</v>
       </c>
@@ -6360,7 +8311,18 @@
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Pour l’audit il serait pertinent d’auditer un vendeur comptoir, un acheteur et un préparateur.
+Le guide d’entretien est le fil conducteur qui va nous mener lors de l’entretien face à face vers les informations dont nous avons besoin pour réaliser l’audit. Une méthode efficace pour le réaliser est d’utiliser le PDCA. Je choisis d’auditer un préparateur de commande :
+</t>
+        </is>
+      </c>
       <c r="P142" t="n">
         <v>6.67</v>
       </c>
@@ -6403,7 +8365,27 @@
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Conclusion de l’audit :
+L’audit s’est déroulé dans de bonnes conditions, les processus en matière de commande et préparations sont existants et bien suivis dans la majorité des cas. Le personnel audité était en confiance et les entretiens ont été riches en informations marque de leur investissement et volonté de bien faire. 
+Rapport :
+Processus de gestion des stocks : 
+Points forts : 	-Processus de rangement respecté, les produits sont classifiés selon leur taux de rotation conformément aux directives.
+Points sensibles :	-Mise en place des inventaires chaque semaine
+			-Alerte des préparateurs de commande
+Ecarts :			-Place dédiée aux produits A
+			-Suivi du système d’information	
+</t>
+        </is>
+      </c>
       <c r="P143" t="n">
         <v>10</v>
       </c>
@@ -6443,7 +8425,25 @@
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Analyse des causes en utilisant le digramme d’Ishikawa
+Milieu
+Méthode 
+Main d’œuvre
+Matière
+Matériel 
+Mise en place des inventaires chaque semaine : les inventaires ciblés hebdomadaires ne sont pas efficaces car il y a des ruptures. Le fait d’avoir du stock au moment de l’inventaire ne garanti pas le fait qu’il n’y a pas eu une rupture durant la semaine. Causes Méthode.
+Alerte des préparateurs de commande, cette méthode de contrôle peut être aléatoire car pas clairement dans la description de poste et cette méthode repose sur la vigilance des préparateurs. Le préparateur n’a pas toujours les outils à disposition pour faire remonter l’information rapidement. Causes Main d’œuvre et Méthode.
+Place dédiée aux produits A. La place de stockage pour les produits à forte rotation n’est pas adaptée. Cette problématique oblige de travailler à flux tendu. Cette façon de faire est peu flexible lors par exemple d’une grosse commande de dernière minute. En tant que grossiste il n’est pas stratégique de travailler à flux trop tendu. Causes : Matériel et Méthode
+Suivi du système d’information. Le niveau de stock est quotidiennement surveillé (en particulier par une bonne gestion de la traçabilité des entrées et sorties dans le système d’information). Tout doit être inscrit dans le système d’information pour que celui-ci soit le plus juste possible. Les processus doivent être suivis à la lettre et de la rigueur dans la saisie des données. Si tout est bien suivi et que l’on utilise ce système d’information pour le réapprovisionnement alors il ne devrait pas avoir autant de ruptures. Causes main d’œuvre et matériel.
+</t>
+        </is>
+      </c>
       <c r="P144" t="n">
         <v>10</v>
       </c>
@@ -6485,7 +8485,24 @@
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Place dédiée aux produits A. La place de stockage pour les produits à forte rotation n’est pas adaptée. Cette problématique oblige de travailler à flux tendu. Cette façon de faire est peu flexible lors par exemple d’une grosse commande de dernière minute. En tant que grossiste il n’est pas stratégique de travailler à flux trop tendu. Causes : Matériel et Méthode
+Solutions : 	-Investir dans de nouveaux racks de stockage type satem pour augmenter la surface de stockage de 30% (dédié aux produits A)
+		-Réserver les espaces à portée de mains pour les produits A 
+En augmentant la place de stockage des produits A on ne travaillera plus (ou moins) à flux tendu. Le rangement de ces produits A de manière visible et accessible le suivi des stocks en sera facilité. 
+Suivi du système d’information. Le niveau de stock est quotidiennement surveillé (en particulier par une bonne gestion de la traçabilité des entrées et sorties dans le système d’information). Tout doit être inscrit dans le système d’information pour que celui-ci soit le plus juste possible. Les processus doivent être suivis à la lettre et de la rigueur dans la saisie des données. Si tout est bien suivi et que l’on utilise ce système d’information pour le réapprovisionnement alors il ne devrait pas avoir autant de ruptures. Causes : main d’œuvre et matériel.
+Solutions :	-Motiver le contrôle des stocks et disponibilité des produits et lutter contre les ruptures avec une prime sur l’atteinte des objectifs (qui seront dans ce cas le taux de rupture et la satisfaction client.
+	-MAJ   du système d’information en incluant une alerte de stock mini journalière sur les produits A. A quittancer tous les jours lors de la commande fournisseur.
+</t>
+        </is>
+      </c>
       <c r="P145" t="n">
         <v>0</v>
       </c>
@@ -6527,7 +8544,22 @@
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Perte de clientèle : critique, peu réduire la base de clients et entrainer une perte de revenu.
+Mauvaise réputation : retard sur les chantiers, changement de qualité des produits, respect des délais. Critique / catastrophique. Réduction de la confiance des clients ce qui peut entrainer une perte de clientèle.
+Coût supplémentaire dû au remplacement des produits A par leurs équivalents, marge négociée différentes. Grave voire critique si le prix négocié est à la hausse et est répercuté sur les clients alors que la qualité n’est pas là. 
+Manque de rentabilité : la perte de la clientèle et les coûts supplémentaires peuvent réduire la rentabilité de l’agence de Toulon. Peu grave à grave, dépendra de la part de marché du produit dans le catalogue de Distrelec.
+Problèmes logistiques : coûts supplémentaires pour la gestion de l’inventaire et distribution des produits. Peu grave à grave. Ces problèmes peuvent être compensés.
+</t>
+        </is>
+      </c>
       <c r="P146" t="n">
         <v>7.5</v>
       </c>
@@ -6569,7 +8601,26 @@
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Le directeur de l’agence mandate l’audit. Celui-ci peut être réalisé en interne si les compétences demandées pour le réaliser se trouvent en interne. La connaissance des processus d’approvisionnement de l’entreprise et de la gestion de l’inventaire de l’entreprise est un plus.
+Un audit externe peut être une autre solution plus objective et apporter un regard externe et expert qui pourra être précieux à l’agence.
+Critères de choix de l’auditeur :
+Expérience et expertise : l’auditeur doit avoir une expérience du secteur, des processus d’approvisionnement et dans la gestion des stocks
+Indépendance : impartialité dans les observations et dans les recommandations données à l’entreprise
+Compétence en communication et rapportage.
+Compétence en gestion de projet et planification d’audit.
+Coût : société externe plus onéreuse qu’une solution interne.
+Pour plus d’impartialité et d’expertise, le choix externe semble être une bonne solution.
+</t>
+        </is>
+      </c>
       <c r="P147" t="n">
         <v>10</v>
       </c>
@@ -6611,7 +8662,31 @@
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Etapes de l’audit :
+Déclenchement
+Plan d’audit / planification : QQOCQP
+Rédaction d’un guide d’entretien
+Recueil d’information sur le terrain
+Observation
+Entretien en face à face
+Animation de groupe
+Rapport d’audit
+Recherche de solution / amélioration en fonction de la demande de l’audité.
+30/01  15/02 : documentation sur et de l’entreprise, rédaction du guide d’entretien
+16/02  28/02 : observation, entretien individuel et animation de groupe
+01/03  15/03 : rédaction du rapport d’audit et soumission
+16/03  25/03 : solutions aux problèmes soulevés si demande de l’entreprise
+</t>
+        </is>
+      </c>
       <c r="P148" t="n">
         <v>10</v>
       </c>
@@ -6651,7 +8726,27 @@
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Documents de l’agence : politique et procédure (protocole de rupture de stock), règlement intérieur, fiche de poste, registre de suivi de l’inventaires, données de vente, tableaux de bord, prévisions
+Informations sur le produit A et son équivalent : quantité, prix, qualité, tendance de la demande
+Registre d’approvisionnement
+Enquête de satisfaction préalables auprès des clients
+Compte rendus d’audit précédent si disponible
+Données financières : bilan, compte de résultats, budgets, …
+Données sur les employés : formations, expérience, rôles, …
+Liste des fournisseurs, délai de livraison, qualité des produits
+Tous ces documents peuvent être classés selon différents leviers :
+Structurels
+Organisationnels
+Humains
+</t>
+        </is>
+      </c>
       <c r="P149" t="n">
         <v>10</v>
       </c>
@@ -6692,7 +8787,29 @@
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Préparateur de commande : responsable de la gestion de l’inventaire et de la préparation des commandes auprès du grossistes.
+Vendeur guichet : peuvent fournir un retour satisfaction des clients
+Directeur d’agence : responsable de la gestion globale de l’agence, y compris procédure de rupture de stock
+Responsable Web marketing
+Guide d’entretien pour le vendeur guichet
+Pouvez vous nous décrire votre rôle et vos responsabilités en tant que vendeur ?
+Comment gérez-vous les demandes des clients pour le produit A ?
+Comment informez-vous les clients de la disponibilité / indisponibilité du produit A ?
+Comment gérez-vous les situations de ruptures de stock du produit A en relation avec le préparateur de commande ?
+Comment proposez-vous au client une alternative ? Pouvez vous me décrire l’alternative et la comparer au produit A ?
+Quels sont les retours des clients lors de l’indisponibilité du produit A ?
+Avez-vous remarqué des difficultés ou des obstacles dans votre travail ? Lesquels ?
+Avez-vous remarqué des différences de satisfaction entre les différentes marques du produit A ?
+</t>
+        </is>
+      </c>
       <c r="P150" t="n">
         <v>10</v>
       </c>
@@ -6735,7 +8852,27 @@
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Pour donner suite à l’audit demandé par le directeur de l’agence DistrElec de Toulon, nous pouvons conclure que l’agence dispose de nombreux points forts qui contribuent à la satisfaction des clients :
+Etendue de la gamme proposée
+Disponibilité des produits courants
+Accueil et conseil des vendeurs de l’agence
+Nous rapportons deux points sensibles, à savoir la gestion de l’inventaire du produits A à forte rotation qui provoqué des ruptures de stock et un remplacement de produit. 
+Autre point sensible : la baisse de satisfaction des clients suite aux ruptures de stocks répétées du produit A.
+Nous avons constaté deux écarts majeurs :
+Rupture de stock suite à une mauvaise traçabilité des entrées et sorties dans le SI au bureau de vente
+Rupture de stock suite à une mauvaise gestion des stocks au niveau de la vérification dans l’entrepôt.
+</t>
+        </is>
+      </c>
       <c r="P151" t="n">
         <v>7.5</v>
       </c>
@@ -6775,7 +8912,16 @@
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Diagramme 5M / Ishigawa : solution d’intelligence collective pouvant aider à trouver l’origine des causes d'un problème. 5M : Main d’œuvre, méthode, milieu, matière, matériel
+</t>
+        </is>
+      </c>
       <c r="P152" t="n">
         <v>6.67</v>
       </c>
@@ -6817,7 +8963,22 @@
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Gestion des stocks dans l’entrepôt
+Implémenter un système Kanban. Implique utilisation de cartes ou de panneaux visuels pour signaler les besoins en matériel selon un niveau prédéfinis et calculés. Dès que le niveau de stock minimal prédéfini est atteint, la carte Kanban est retournée ou récoltée afin d’effectuer une nouvelle commande. Le stock restant est placé en avant pour assurer un turnover. Correspond à la méthode.
+Pour une meilleure visibilité, les produits à haut turnover doivent être mis à hauteur de vue des employés et à proximité des lieux de passage fréquent. Combiné au Kanban, la gestion du stock de ces produits pourra être plus facile et régulière. Correspond au milieu.
+Mauvaise traçabilité dans le SI en point de vente
+Remplacement du système d’information par un système d’information plus récent complété par une IA qui anticipe la demande en fourniture selon différents critères en open access : météo, demande de permis de bâtir, congé du bâtiment, tendance selon les différents points de vente, tendance déco, etc… Correspond au matériel
+Rédaction de procédure claires et précises selon les différents cas observés durant l’audit : rupture de stock, alternative dans la concurrence, autre référence propre. Correspond à la méthode.</t>
+        </is>
+      </c>
       <c r="P153" t="n">
         <v>10</v>
       </c>
@@ -6859,7 +9020,17 @@
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P154" t="n">
         <v>7.5</v>
       </c>
@@ -6901,7 +9072,18 @@
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Le directeur de l’agence mandate l’audit et il sera réalisé par un consultant externe qui sera choisi selon ses compétences organisationnelles, d’audit et ses connaissances sur le secteur. 
+</t>
+        </is>
+      </c>
       <c r="P155" t="n">
         <v>7.5</v>
       </c>
@@ -6943,7 +9125,21 @@
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes de l’audit : 
+Préparation de l’audit en élaborant un plan de l’audit et éventuellement 1 ou plusieurs guides d’entretien 
+Réalisation de l’audit via une observation sur le terrain et/ou une animation de groupe de travail et/ou avec des entretiens face à face 
+Conclusion et suite de l’audit : avec un rapport d’audit et la proposition d’action correctrices 
+</t>
+        </is>
+      </c>
       <c r="P156" t="n">
         <v>8.33</v>
       </c>
@@ -6983,7 +9179,18 @@
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Les documents : 
+Fiche de poste, de mission, contrat de travail  
+Organigramme
+Cartographie et fiche de processus 
+</t>
+        </is>
+      </c>
       <c r="P157" t="n">
         <v>5</v>
       </c>
@@ -7024,7 +9231,27 @@
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Les 3 personnes : 
+Un préparateur de commande 
+Un chargé de l’inventaire 
+Le DSI 
+Le service achat 
+Guide d’entretien pour le préparateur de commande 
+Pouvez-vous me raconter une journée type ? 
+Quelles difficultés rencontrez-vous dans votre travail ? 
+Comment résolvez-vous ces difficultés ? 
+Quelle communication tenez-vous avec votre hiérarchie ? 
+Comment communiquez-vous sur les ruptures de stocks ? 
+Quel axe d’amélioration voyez-vous ? 
+</t>
+        </is>
+      </c>
       <c r="P158" t="n">
         <v>3.33</v>
       </c>
@@ -7067,7 +9294,21 @@
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Nous vous remercions pour votre collaboration qui nous a permis de mettre en lumière la forte implication de l’ensemble des collaborateurs peu importe leur poste. Nous avons remarqué rapidement que l’équipe se sentait concernée et souhaite arriver à des solutions pour la satisfaction de vos clients. Nous pensons avoir détecter deux points cruciaux qui nous permettront de vous aider pour y parvenir. 
+Le premier concerne la communication interne qui nécessite une meilleure clarté pour pouvoir anticiper les ruptures avant de les subir. Il y a un écart entre ce qui est perçu par les préparateurs de commande et le service achat. 
+Le deuxième concerne les indicateurs standards KPI. Il y a un écart de valeur entre le service achat et les préparateurs de commande. Le service achat estime qu’à partir de 300 produits, une relance d’achat doit être ordonnée alors que les préparateurs de commande attendent qu’il en reste 200. 
+</t>
+        </is>
+      </c>
       <c r="P159" t="n">
         <v>5</v>
       </c>
@@ -7107,7 +9348,15 @@
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P160" t="n">
         <v>0</v>
       </c>
@@ -7149,7 +9398,17 @@
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P161" t="n">
         <v>3.33</v>
       </c>
@@ -7523,7 +9782,25 @@
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques principaux engendrés par cette situation sont :
+Les électriciens vont se fournir chez un concurrent – très probable &amp; catastrophique --&gt;
+ Niveau critique
+Problèmes de livraison du stock de produits (grèves, blocage des routes, etc) - Très probable &amp; catastrophique  niveau critique
+Difficulté d’approvisionnement d’un produit rendant le produit indisponible de manière régulière  Peu probable &amp; Catastrophique Majeur
+Beaucoup de retours produits car les substituts ne conviennent pas aux clients finaux – Probable &amp; significatif  Acceptable
+Les risques critiques sont ceux qui touchent à la satisfaction client et donc au chiffre d’affaires de l’entreprise. Si un client est mécontent et décide d’aller se fournir ailleurs, toute l’entreprise en sera impactée. 
+De la même manière, le fonctionnement en flux tendu crée des ruptures de stocks régulières, s’il est bien géré, mais serait catastrophique si un soudain blocage des livraisons devait survenir (gilets jaunes, covid) et empêcher le stock de se renouveler durant plusieurs semaines consécutives.
+</t>
+        </is>
+      </c>
       <c r="P170" t="n">
         <v>7.5</v>
       </c>
@@ -7565,7 +9842,18 @@
         </is>
       </c>
       <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L’audit est mandaté par le directeur de l’agence. L’équipe étant relativement petite, un auditeur externe sera plus pertinent. Cet auditeur sera choisi en fonction de sa connaissance des procédés logistiques des entreprises de distribution de produits au détail, ainsi que du marché.
+</t>
+        </is>
+      </c>
       <c r="P171" t="n">
         <v>10</v>
       </c>
@@ -7607,7 +9895,30 @@
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+La préparation de mon audit se décompose en 3 parties avant la date du 31 mars, et 1 étape à postériori. 
+1 – Préparation de l’audit – Dès à présent/ jusqu’à fin février
+Réalisation du plan d’audit
+Préparation de la grille d’entretien
+Recherche documentaire, lecture de l’état des lieux et des audits précédents
+ Organisation de l’audit avec le responsable de l’unité. Il s’occupe de prendre les différents rendez-vous avec les interlocuteurs et de planifier l’observation
+2 – Recueil d’informations terrain à mettre en place sur les 10 premiers jours de mars
+Observation
+Entretiens individuels
+3 – Synthèse et rédaction du rapport d’audit – Mi-mars /Deadline 31 mars
+4 – Recherche de solutions (à postériori) – Courant avril et mai
+Mise en place de groupes de réflexion sur la modification des processus
+Formalisation des solutions et des nouveaux axes de recherche.
+</t>
+        </is>
+      </c>
       <c r="P172" t="n">
         <v>8.33</v>
       </c>
@@ -7647,7 +9958,21 @@
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Afin de préparer au mieux cet audit, je demande :
+Les comptes rendus des précédents audits liés à ce domaine
+Les fiches de post des préparateurs de commandes, approvisionneurs, expéditeurs de commande, du service achat et du responsable de logistique
+Le manuel d’organisation de la business unit logistique
+Les procédures de commandes
+Le mode opératoire du système de gestion des commandes
+</t>
+        </is>
+      </c>
       <c r="P173" t="n">
         <v>10</v>
       </c>
@@ -7688,7 +10013,21 @@
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Si je devais choisir 3 fonctions à auditer me permettant de comprendre au mieux la situation, je choisirais : 
+Le responsable service logistique
+1 préparateur de commandes
+1 approvisionneur
+Guide d’entretien avec le responsable du service logistique : 
+</t>
+        </is>
+      </c>
       <c r="P174" t="n">
         <v>8.33</v>
       </c>
@@ -7731,7 +10070,24 @@
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Après audit de la situation, nos conclusions se présentent telles quelles : 
+Point fort : La réactivité du réachat est présente. Les nouveaux produits sont commandés rapidement et il n’y a que peu de jours consécutifs de rupture de stock
+Point sensible : Le fonctionnement à flux tendu rajoute une pression supplémentaire sur les préparateurs de commandes qui ne savent jamais quand leur stock va être livré. Cette situation crée des tensions sur toute la chaîne d’approvisionnement du produit et des discordes apparaissent au sein de l’équipe.
+Point sensible : Le manque de stock sur les produits A amène à une surcharge de travail au sein du département achat qui se voit contraint de passer de nouvelles commandes tous les jours afin d’être approvisionnées à temps. 
+Écart : Durant le mois de janvier, 10 ruptures de stock sur l’un des produits A.
+Écart : Les clients mécontents le font sentir aux personnes en charge de délivrer leurs commandes. Ces personnes ne sont pas formées à la gestion des mécontentements et sont les premières réceptrices de la colère/déception sans aucun moyen de diffuser la situation.
+</t>
+        </is>
+      </c>
       <c r="P175" t="n">
         <v>10</v>
       </c>
@@ -7771,7 +10127,27 @@
         </is>
       </c>
       <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Écart 1 : Durant le mois de janvier, 10 ruptures de stock sur l’un des produits A.
+Main d’œuvre : Les préparateurs de commandes relèvent les stocks faibles puis les envoient au service achat. Le procédé au service achat est cependant plus long, ce qui amène à une rupture du stock.
+Méthode : Méthode de transmission des informations via le système d’informations qui n’est pas consulté par tous en permanence
+Milieu : Absence de communication entre les différents métiers autrement que par le système d’information
+Matériel : système d’information
+Matière :
+Écart 2: Les clients mécontents le font sentir aux personnes en charge de délivrer leurs commandes. Ces personnes ne sont pas formées à la gestion des mécontentements et sont les premières réceptrices de la colère/déception sans aucun moyen de diffuser la situation.
+Main d’œuvre : Préparateurs de commandes non formés à la gestion de la relation client, ce qui accentue le mécontentement
+Méthode : Pas de méthode clairement définie
+Milieu : Pas d’espace dédié à la réception des clients avec un accueil
+Matériel : 
+Matière :
+</t>
+        </is>
+      </c>
       <c r="P176" t="n">
         <v>10</v>
       </c>
@@ -7813,7 +10189,27 @@
         </is>
       </c>
       <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr"/>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Écart 1 : Durant le mois de janvier, 10 ruptures de stock sur l’un des produits A.
+Cause 1 : Méthode de transmission des informations via le système d’informations qui n’est pas consulté par tous en permanence
+Les solutions : Mise en place d’une procédure : Définir des deadlines horaires pour faire remonter les stocks faibles au service achat. Pour le service achat, obligation de consulter le système d’informations plusieurs fois par jour.
+Cause 2 : Les préparateurs de commandes relèvent les stocks faibles puis les envoient au service achat.
+Les solutions : Amorcer une réflexion avec la direction sur la politique de gestion du stock. Est-il possible de commander les produits A en plus grand nombre, ou lorsqu’ils ne sont pas au plus bas ? 
+Pour le service achats, mettre en place un processus plus efficace leur permettant plus d’autonomie dans le restock de produits sans avoir besoin d’attendre validation de la hiérarchie.
+Écart 2 : Les clients mécontents le font sentir aux personnes en charge de délivrer leurs commandes. Ces personnes ne sont pas formées à la gestion des mécontentements et sont les premières réceptrices de la colère/déception sans aucun moyen de diffuser la situation.
+Cause 1 : Préparateurs de commandes non formés à la gestion de la relation client, ce qui accentue le mécontentement
+Les solutions : Création d’une formation destinée aux préparateurs de commande afin de les accompagner dans la gestion des clients mécontents. Identifier une procédure pour permettre à un préparateur de commande de demander de l’aide pour diffuser une situation, avant que celle-ci ne devienne trop tendue.
+Cause 2 : Pas de méthode clairement définie
+Les solutions : Mettre en place un groupe de réflexion transverse afin de créer un manuel d’organisation de la relation client. En l’état, le client n’est prévenu de la rupture de stock qu’au dernier moment. Il faut impérativement mettre en place une solution qui lui permette d’être au courant bien avant, et qui permette aux équipes d’avoir suffisamment de temps pour commander le produit manquant si besoin est.</t>
+        </is>
+      </c>
       <c r="P177" t="n">
         <v>10</v>
       </c>
@@ -8187,7 +10583,24 @@
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques
+1 risque de perte de clients et donc de CA accentuée par le bouche à oreille et les réseaux sociaux
+2-baisse de parts de marché provoquant une méfiance de la part des artisans et des clients finaux
+3-multiplication des rupture de stocks
+4-mécontentement des salariés
+5-conflit dans l’agence
+Evaluation des risques
+</t>
+        </is>
+      </c>
       <c r="P186" t="n">
         <v>10</v>
       </c>
@@ -8229,7 +10642,20 @@
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+le directeur de l’agence mandate l’audit
+l’audit sera réalisé soit par un service interne  de préférence car il pourra comparer avec d’autres agences. En outre il connait très bien le secteur d’activité et les produits
+l’auditeur sera choisi sur son objectivité, son sérieux
+</t>
+        </is>
+      </c>
       <c r="P187" t="n">
         <v>10</v>
       </c>
@@ -8271,7 +10697,45 @@
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Phase préparatoire. Ordre de mission. Appropriation du périmètre audité Identification des risques. 
+Phase de réalisation. Réunion d'ouverture. Travail sur le terrain =
+ •	entretien avec le directeur d’agence
+•	entretiens avec des salariés
+•	vérification des processus pilotage (points forts et améliorations possibles) :
+•	compétences du personnel efficacité du tableau de bord
+•	vérification processus RH
+•	maîtrise du système informatique    
+Phase de conclusion. Projet de rapport d'audit. Réunion de clôture.
+nous pourrions schématiser les phases  de cette manière :
+preparation = guide d’entretien et plan d’audit
+réalisation =entretiens, observation terrain, animation de groupes
+conclusion = piste d’amélioration et rapport
+le planning doit s’étendre sur deux mois : février et mars
+en février :
+entretien avec le directeur d’agence
+entretiens avec des salariés
+en mars
+vérification des processus pilotage (points forts et améliorations possibles) :
+compétences du personnel efficacité du tableau de bord
+vérification processus RH
+maîtrise du système informatique    
+compte rendu de l’audit avec recommandations
+La matrice RACI est un outil de communication. Elle permet de visualiser les rôles de chacun dans un projet et donc de répondre aux questions « Qui fait quoi ? ». Plus précisément, une fois un projet préalablement défini, la méthode RACI consiste en l’élaboration d’un tableau ou d’une grille, dans laquelle est clairement indiqué qui fait quoi dans le projet donné. 
+R	Qui est le réalisateur ? (Responsible)	l’auditeur
+A	Qui est le responsable ?(Accountable)	La personne qui prend la décision finale et rend les comptes. l’auditeur
+C	Qui est consulté ? (Consulted)	La personne consultée pour prendre une décision. le responsable de l’agence
+I	Qui est informé ? (Informed)	La personne informée de la progression ou des décisions. le resposable de l’agence et les salariés
+</t>
+        </is>
+      </c>
       <c r="P188" t="n">
         <v>3.33</v>
       </c>
@@ -8311,7 +10775,19 @@
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : ANALYSE DOCUMENTAIRE
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Le référentiel normatif et/ou réglementaire ;
+Le rapport du précédent audit ;
+Le manuel qualité ;
+Les fiches processus
+</t>
+        </is>
+      </c>
       <c r="P189" t="n">
         <v>10</v>
       </c>
@@ -8352,7 +10828,34 @@
         </is>
       </c>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+le responsable d’agence
+les salariés
+responsable des approvisionnements
+Quelle est votre analyse de la situation ?​
+​
+Comment contribuez-vous à atteindre les objectifs de votre organisation ?​
+​
+A votre avis, quel est la fiabilité du système d’information ?​
+​
+Quels indicateurs utilisez-vous pour anticiper les ruptures de stock ?​
+​
+Que faites-vous quand vous êtes confronté à une problématique de stock ?​
+​
+Comment contribuez-vous auprès des services internes lors de réclamations clients ?​
+​
+Comment décrivez-vous vos relations avec les autres agences ?​
+​
+​
+</t>
+        </is>
+      </c>
       <c r="P190" t="n">
         <v>6.67</v>
       </c>
@@ -8395,7 +10898,26 @@
         </is>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+☞ 1 point fort
+☞ 2 points sensibles
+☞ 2 écarts
+Votre réponse : 
+Points forts 
+ une équipe impliquée et compétente sur les caractéristiques des produits
+points sensibles
+une mauvaise mîtrise des outils informatiques
+une mauvaise anticipations des besoins des clients
+deux écarts
+chiffres d’affaires prévisionnel et réel
+entreprise peu connectée
+</t>
+        </is>
+      </c>
       <c r="P191" t="n">
         <v>5</v>
       </c>
@@ -8435,7 +10957,22 @@
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Problème à résoudre : éviter les nombreuse ruptures de stocks de produits sensibles pour éviter le mécontentement des clients
+causes identifiées :
+main d’œuvre 
+manque de formation aux outils numériques qui sont peu performants
+absences de primes
+matériel
+Entreprise mal connectée
+</t>
+        </is>
+      </c>
       <c r="P192" t="n">
         <v>5</v>
       </c>
@@ -8477,7 +11014,22 @@
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+☞ Préciser à quelles causes elles correspondent
+☞ Décrire les solutions
+Votre réponse : 
+Pour le CA 
+Evaluer régulièrement la satisfaction des clients et y répondre donc mettre en place un SAV efficient pour anticiper la demande et éviter les ruptures de stocks (méthodes)
+Anticiper les tendances et demandes des clients (méthodes)
+Entreprise peu connectée
+Renouveler le matériel numérique pour être en constante adéquation avec les clients (matériel) en concertation avec les clients (gestion partagée des approvisionnements)
+Former le personnel à ces outils numériques par un cadre du siège (main d’œuvre)</t>
+        </is>
+      </c>
       <c r="P193" t="n">
         <v>0</v>
       </c>
@@ -8519,7 +11071,24 @@
         </is>
       </c>
       <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Il existe plusieurs risques engendrés par la rupture de stock : 
+Le mécontentement des clients 
+Perte de part de marché vers un concurrent proche mais sans rupture de stock
+La perte de chiffre d’affaires (si le client ne veut pas changer de modèle)
+La rupture d’un produit similaire à cause du report de vente 
+Nous nous rendons bien compte que tous ces risques ont des impacts critiques.
+Nous avons besoin de tous les traiter et d’en surveiller un mais qui sera forcément traité au vu de son étroit lien avec la situation principale.
+</t>
+        </is>
+      </c>
       <c r="P194" t="n">
         <v>5</v>
       </c>
@@ -8561,7 +11130,20 @@
         </is>
       </c>
       <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Dans notre cas présent, c’est le directeur de l’agence qui mandate l’audit. 
+C’est l’auditeur interne du groupe qui va être mandaté. Il fait partie des fonctions supports du groupe attaché au service qualité du siège. Les agences font souvent appel à lui. Il est très proche de la réalité terrain.  En effet, il a une connaissance accrue des différents process mis en place dans les différentes agences et son point de vue spécialisé sera le plus judicieux dans cette situation. 
+Dans ses recommandations qu’il aura à faire, il sera plus pertinent et factuel. Elles seront beaucoup plus près de la réalité et des contraintes du groupe et il pourra donner des plans d’action déjà ciblés groupe et testés sur d’autres agences. 
+</t>
+        </is>
+      </c>
       <c r="P195" t="n">
         <v>10</v>
       </c>
@@ -8603,7 +11185,35 @@
         </is>
       </c>
       <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les différentes étapes de l’audit sont : 
+Préparation de l’audit : 
+Champ
+Périmètre
+Plan de l’audit 
+Processus opérationnels 
+Processus supports 
+Processus de pilotage
+Analyse documentaire
+Réalisation du guide d’entretien
+QUI ? QUAND ? SUR QUEL CHAMP ?
+Réalisation de l’audit : Recueil d’informations sur le terrain
+Observation sur le terrain
+Entretien face à face
+Animation de groupe de travail
+Synthèse de l’audit : réalisation du rapport d’audit 
+Recherche de solutions d’amélioration : préconisations et plans d’actions
+Le rapport d’audit sera rendu le 27/02/2023, ce qui permettra au directeur d’agence de choisir les préconisations qu’il veut mettre en place et l’auditeur prendra une semaine supplémentaire pour proposer les plans d’action en fonction de la solution adopté par le directeur.
+</t>
+        </is>
+      </c>
       <c r="P196" t="n">
         <v>5</v>
       </c>
@@ -8643,7 +11253,23 @@
         </is>
       </c>
       <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Les documents qui pourraient me servir sont :
+Rapports d’audit précédant (quelles étaient les problématiques traitées ?)
+Compte rendu de réunion organisé par le magasin (quels sont les différents points abordés en réunion d’équipe)
+Le CRM présent et utilisé ou non (qui y a accès ? qui s’en sert ?)
+L’organigramme de l’agence (absences ? turn over ?)
+Le rôle de chacun (qui fait quoi ?)
+La liste des ruptures des 4 dernières semaines
+La liste des fournisseurs, leur jour de livraison, leur délai de livraison 
+</t>
+        </is>
+      </c>
       <c r="P197" t="n">
         <v>7.5</v>
       </c>
@@ -8684,7 +11310,41 @@
         </is>
       </c>
       <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Les 3 fonctions que j’auditerais sont : 
+L’approvisionneur 
+Le préparateur de commande 
+Le responsable des achats 
+Je réalise le guide d’entretien pour le préparateur de commande. 
+« Bonjour et merci d'avoir accepté ma demande d'entretien.
+Je me présente, je suis Sabine ARQUE, je suis l’auditeur interne du groupe et j’ai la charge de mener un audit auprès des collaborateurs de l’agence de TOULON. L'objectif est de sonder et de comprendre vos problématiques quant à l’accroissement des ventes des spots encastrables LED et de la problématique de ruptures que vous rencontrez ces dernières semaines. C’est volontairement que je ne vous en dis pas trop afin que vous restiez le plus spontané possible et que votre jugement reste impartial. Cet entretien restera anonyme. 
+Pour le déroulement de l’entretien qui va durer environ 1h, J’ai un guide d’entretien avec une série de questions.
+Nous allons aborder 3 thématiques que j’introduirai à chaque fois par une question assez large et ensuite, je vous poserai des questions de plus en plus précises sur cette thématique. Je précise que le but est que vous me parliez de votre expérience et ressenti à vous personnellement et non ce que pensent les gens autour de vous. 
+Si vous êtes prêt, on va pouvoir commencer l’entretien. 
+Tout d’abord, je dois vous demander l’autorisation pour enregistrer cet entretien. Il ne sera pas diffusé, c’est pour me permettre de rester concentrer sur notre conversation et de ne passer à côté d’aucune information. 
+Thème 1 : L’entretien professionnel
+Décrivez-vous-en quelques mots
+Présentez-moi vos missions au sein de l’agence en décrivant une journée type ?
+Présentez-moi l’organisation de travail idéale pour vous ? 
+Qu’est-ce qui selon vous peut être amélioré au sein de l’agence ?
+Thème 2 : Le processus de préparation de commande
+Décrivez-moi le processus de commande en quelques mots.
+Dans le cas d’une rupture, que faites-vous ? 
+Dans le cas où vous prenez le dernier produit en stock, que faites-vous ?
+Thème 3 : Le suivi des ruptures
+Présentez-moi votre CRM ? 
+Comment l’utilisez-vous au quotidien ? 
+Quelles fonctionnalités vous manqueraient pour être plus optimum ? 
+Je vous remercie pour cet entretien très instructif et constructif qui nous permettra de faire évoluer -entre autres- nos processus de commandes et de suivi des ruptures et de mieux visualiser les attendus des préparateurs de commande dans leur quotidien. Je vous souhaite une bonne continuation et nous vous tiendrons au courant de l'avancée de cette concertation. »
+</t>
+        </is>
+      </c>
       <c r="P198" t="n">
         <v>6.67</v>
       </c>
@@ -8727,7 +11387,25 @@
         </is>
       </c>
       <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Pour donner suite à l’audit effectué dans votre agence, je tiens à vous remercier de l’accueil que vous m’avez réservé. Le CRM mis en place sur votre agence est à son apogée. Toutes les fonctionnalités sont utilisées et mises en place dans votre agence. Toutefois j’attire votre vigilance sur deux points sensibles : 
+Les nouveaux préparateurs n’ont pas suivi de formation à leur arrivée et leur apprentissage du logiciel se fait « sur le tas »
+Les fournisseurs ne vous informent pas de leur rupture sur à votre passage de commande. 
+De plus, j’ai pu constater 2 écarts de procédures :
+Lorsqu’il y a affluence et que vous êtes en sous-effectif la saisie des sorties ne se fait qu’en fin de journée ce qui fausse les propositions de commandes de la journée.
+Lors de l’inventaire hebdomadaire, les quantités ne sont pas systématiquement modifiées s’il y a écart de stock. 
+J’ai bien compris que ces dernières semaines, les ventes s’étaient accélérées et les congés n’ont pas aidé au bon fonctionnement. Cependant, le respect des procédures au quotidien permettra de résoudre les petits écarts auxquels vous faites face et anticiper les ruptures au plus tôt.
+</t>
+        </is>
+      </c>
       <c r="P199" t="n">
         <v>7.5</v>
       </c>
@@ -8767,7 +11445,15 @@
         </is>
       </c>
       <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr"/>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+ </t>
+        </is>
+      </c>
       <c r="P200" t="n">
         <v>8.33</v>
       </c>
@@ -8809,7 +11495,24 @@
         </is>
       </c>
       <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Les solutions que nous pouvons apporter pour chaque écart sont : 
+Lorsqu’il y a affluence et que vous êtes en sous-effectif la saisie des sorties ne se fait qu’en fin de journée ce qui fausse les propositions de commandes de la journée.
+En cas de forte affluence, privilégier une personne aux renseignements clients et une à la saisie des sorties de marchandises et faire appel au responsable des achats pendant cette affluence.
+Mettre une plus grande marge de sécurité sur la proposition de commande, qui provoquera un léger surstock sur les références tombant souvent en rupture.
+Lors de l’inventaire hebdomadaire, les quantités ne sont pas systématiquement modifiées s’il y a écart de stock. 
+Faire une double vérification de l’inventaire hebdomadaire afin de sécuriser les sorties 
+Archiver les rapports d’écart de stock
+</t>
+        </is>
+      </c>
       <c r="P201" t="n">
         <v>10</v>
       </c>
@@ -8851,7 +11554,18 @@
         </is>
       </c>
       <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Les risques identifies sont ;
+</t>
+        </is>
+      </c>
       <c r="P202" t="n">
         <v>7.5</v>
       </c>
@@ -8893,7 +11607,24 @@
         </is>
       </c>
       <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+Le responsable du service achat mandate l’audit.
+L’audit est réalisé par l’approvisionneur.
+Il est choisi sur les critères de sa capacite à définir
+La politique de gestion des stocks 
+La mise en place d’un plan d'approvisionnements au moyen de la base de prévisions, du plan commercial 
+Le traitement et le suivi des commandes aux fournisseurs jusqu'à la livraison
+Garantir la mise à disposition des produits pour éviter les ruptures 
+</t>
+        </is>
+      </c>
       <c r="P203" t="n">
         <v>2.5</v>
       </c>
@@ -8935,7 +11666,21 @@
         </is>
       </c>
       <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes de l’audit ;
+Audition du service des approvisionnent 
+Audition du service gestion du stock 
+Audition du service client 
+</t>
+        </is>
+      </c>
       <c r="P204" t="n">
         <v>0</v>
       </c>
@@ -8975,7 +11720,20 @@
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Les documents qui peuvent aider cet audit seront les 
+Outils de gestion interne ; tels que les procédures de travail  
+Outil informatique sur le taux de rotation 
+Les délais des fournisseurs
+Les comptes rendus d’inventaires 
+</t>
+        </is>
+      </c>
       <c r="P205" t="n">
         <v>5</v>
       </c>
@@ -9016,7 +11774,19 @@
         </is>
       </c>
       <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+L’approvisionneur 
+Le chef du service des achats 
+Le réceptionnaire
+</t>
+        </is>
+      </c>
       <c r="P206" t="n">
         <v>1.67</v>
       </c>
@@ -9059,7 +11829,22 @@
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Le point fort gamme étendue des produits, accueil convivial et conseil des vendeurs 
+Perte des clients et du CA 
+Rupture de stock , 
+Gestions des approvisionnements à flux tendus 
+</t>
+        </is>
+      </c>
       <c r="P207" t="n">
         <v>0</v>
       </c>
@@ -9099,7 +11884,27 @@
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Problème à résoudre : disposer d’u stock suffisant
+Méthodes 
+Revoir les process ou méthodes de travail pour une bonne gestion des stocks
+Les outils de gestions ne sont pas utilisés 
+Revoir les délais des fournisseurs 
+MILIEU 
+Absence de cohésion d’équipe.
+Les outils de gestions sont 
+Main d’œuvre La  
+Matériel les outils de gestions interne ne sont pas adaptes 
+Matière 
+Mm
+</t>
+        </is>
+      </c>
       <c r="P208" t="n">
         <v>0</v>
       </c>
@@ -9141,7 +11946,17 @@
         </is>
       </c>
       <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P209" t="n">
         <v>0</v>
       </c>
@@ -9183,7 +11998,21 @@
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Manque de place  Il y a un risque très probable de gestion des commandes en flux tendu avec des conséquences grave sur l’approvisionnement et donc la disponibilité des produits.
+Rupture de stock  On peut noter un risque probable avec conséquence significative sur la satisfaction clients.
+Réputation  On présage un risque très probable avec conséquence grave sur la fréquentation du magasin.
+Perte de client  On constatera un risque très probable avec des conséquences grave sur le chiffre d’affaires. 
+</t>
+        </is>
+      </c>
       <c r="P210" t="n">
         <v>5</v>
       </c>
@@ -9225,7 +12054,20 @@
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
-      <c r="O211" t="inlineStr"/>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L’audit est mandaté par le directeur de l’agence. L’idée est de comprendre ce qui, dans le fonctionnement de la chaine logistique, ne permet pas de garantir une disponibilité des produits conforme à nos objectifs, c’est à dire un stock suffisant pour garantir la présence des produits et la satisfaction des clients.
+Nous ferons appelle à une société d’audit et de conseil donc externe pour apporter un regard et un point de vue neutre et hors de la structure organisationnelle. 
+Pour plus d’efficience, l’auditeur sera choisi sur des critères de connaissance de l’activité de la société afin qu’il soit légitime et il aura une base de réflexion liée au benchmark du secteur d’activité. 
+</t>
+        </is>
+      </c>
       <c r="P211" t="n">
         <v>10</v>
       </c>
@@ -9267,7 +12109,23 @@
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
-      <c r="O212" t="inlineStr"/>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Il faut au préalable savoir et comprendre ce qu’on veut diagnostiquer  5 février
+Ensuite il faudra dresser un inventaire des informations que l’on souhaite pour faire une analyse documentaire 7 février
+Enfin nous mettrons en place le recueil d’informations sur différent format. Il s’agira aussi d’identifier le ou les collaborateur(s) qui seront audité 14 février
+Il sera aussi question d’identifier les informations à obtenir lors de l’entretien et ça nous permettra de préparer le guide d’entretien. Nous pouvons réaliser des observations sur les postes de travail 21 février
+A la suite des démarches précédentes nous allons procéder aux entretiens face à face. La mise en place d’un groupe de travail pourra aussi être réaliser pour mettre à profit l’intelligence collective et profiter des différents points de vue face à la situation  7 mars
+Apres analyse, un rapport d’audit pourra être remis au commanditaire avec un plan d’action pour réduire les écarts entre la situation souhaitée et la situation actuelle  31 mars
+</t>
+        </is>
+      </c>
       <c r="P212" t="n">
         <v>6.67</v>
       </c>
@@ -9307,7 +12165,16 @@
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
-      <c r="O213" t="inlineStr"/>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Nous pourrions avoir besoin des fiches de poste des collaborateurs afin de savoir qui fait quoi et comment. Nous pouvons aussi demander à voir le règlement intérieur et les fiches de procédures. Nous aurions aussi besoin du tableau de bord, fiche de suivi, traçabilité, l’accès au système d’informations et/ ou CRM.  
+</t>
+        </is>
+      </c>
       <c r="P213" t="n">
         <v>10</v>
       </c>
@@ -9348,7 +12215,23 @@
         </is>
       </c>
       <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr"/>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Il pourrait être pertinent d’auditer : 
+Un préparateur de commande 
+Le responsable des achats
+Le responsable des systèmes d’information
+Nous allons mettre en place l’entretien avec le préparateur de commande :
+Nous allons commencer par une introduction de présentation et la mise à plat des objectifs de l’audit. Nous lui ferons un point sur le déroulement de l’audit et nous insisterons sur la confidentialité de l’échange car celui-ci doit mettre en cause les failles de l’organisation et non des personnes.
+Nous entrerons par la suite dans la phase de questionnement et j’opterai sur une technique en entonnoir. L’idée est de le questionner sur son poste et sa façon de l’exécuter avec des interrogations ouvertes et claire. Je m’appuierai sur les réponses pour poser les questions qui me permettrons de rentrer dans le sujet. Je lui demanderai par exemple qu’elle est la procédure à effectuer à la réception du matériel, comment il veille à rentrer les informations sur les besoins en fonction des stocks dans le système d’information, qui est en contacte avec les fournisseurs. Comment il gère l’anomalie de gestion des stock… Quelles sont selon lui les causes de ruptures.
+</t>
+        </is>
+      </c>
       <c r="P214" t="n">
         <v>6.67</v>
       </c>
@@ -9391,7 +12274,23 @@
         </is>
       </c>
       <c r="N215" t="inlineStr"/>
-      <c r="O215" t="inlineStr"/>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Point fort  Les effectifs sont en nombre suffisant et engagés pour fournir des prestations de qualité. 
+Point sensible 1  Il pourrait y avoir une lecture plus dynamique sur les variations de stock pour plus d’agilité.
+Point sensible 2  Ils pourraient optimiser les surfaces de stockage afin d’accroitre le volume (en réduisant par exemple les surfaces de stockage de produit avec un cycle de vente moins dynamique)
+Ecart 1  Il n’y a pas de système automatisé de suivi des stocks
+Ecart 2  Il n’y a pas de procédure simplifier pour accélérer l’achalandage en cas de rupture d’approvisionnement.
+</t>
+        </is>
+      </c>
       <c r="P215" t="n">
         <v>5</v>
       </c>
@@ -9431,7 +12330,27 @@
         </is>
       </c>
       <c r="N216" t="inlineStr"/>
-      <c r="O216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+Problème à résoudre : Il n’y a pas de système automatisé de suivi des stocks
+Milieu : les zones de stockage sont réduites
+Méthode : Le personnel n’a pas été mis en place de process uniforme de contrôle des stocks
+Matériel : Le personnel n’a pas les outils pour scanner les codes-barres produits entrant et sortant.
+Matière : Le personnel est affairé sur d’autres taches 
+Main d’œuvre : Le personnel n’a pas été informé et formé sur ce type de système.
+Problème à résoudre : Il n’y a pas de procédure simplifier pour accélérer l’achalandage en cas de rupture d’approvisionnement.
+Milieu : Les horaires de travail ne permettent pas l’exécution de cette tache dans la plage horaire dédiée.
+Méthode : La procédure de fait pas partie des éléments d’informations fourni pour l’exécution des différentes tâches. 
+Matériel : Il n’y a pas d’affichage précisant quoi faire dans la situation
+Matière : Le manager n’a pas mis en place la fiche de procédure pertinente.
+Main d’œuvre : Le personnel ne peut pas prendre la responsabilité de mettre en place des procédures. 
+</t>
+        </is>
+      </c>
       <c r="P216" t="n">
         <v>10</v>
       </c>
@@ -9473,7 +12392,21 @@
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Ecart 1  Il n’y a pas de système automatisé de suivi des stocks : 
+Faire l’acquisition d’un gestionnaire de stock informatisé avec des scannettes pour avoir une lecture dynamique de la variation de stock. Mettre en place un protocole automatisé de commande avec la fixation d’un seuil.
+Ecart 2  Il n’y a pas de procédure simplifier pour accélérer l’achalandage en cas de rupture d’approvisionnement.
+Mise en place par le service qualité d’une procédure en cas de constat de défaut sur les stock. 
+</t>
+        </is>
+      </c>
       <c r="P217" t="n">
         <v>8.33</v>
       </c>
@@ -9847,7 +12780,18 @@
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse: 
+Q1)
+</t>
+        </is>
+      </c>
       <c r="P226" t="n">
         <v>5</v>
       </c>
@@ -9889,7 +12833,22 @@
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
-      <c r="O227" t="inlineStr"/>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse: 
+l’audit est mandaté par le directeur  de l’agence. 
+L’audit peut être réalisé par un cabinet extérieur indépendant pour garantir l’exactutude et l’objectivité des resultats de l’audit.
+- des objectifs de l'audit
+- des ressources disponibles 
+- des exigences réglementaires.
+</t>
+        </is>
+      </c>
       <c r="P227" t="n">
         <v>5</v>
       </c>
@@ -9931,7 +12890,18 @@
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse :
+La matrice RACI
+</t>
+        </is>
+      </c>
       <c r="P228" t="n">
         <v>0</v>
       </c>
@@ -9971,7 +12941,24 @@
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse: 
+Les documents qui pourraient nous aider à preparer cet audit:
+- le refenciel (une norme internationale , par exemple; ISO)
+- les procedures : 
+- les instructions : 
+- la matrice de gestion des risques et opportunités:
+- la planification des objectifs: comment sont planifiés les objectifs  pour l’atteinte des objectifs
+- les infrastructures
+- le tableau de bord dans lequel il sera mentionné les diiferents indicateurs de performances
+- la selection et l’evaluation des prestataires externes
+</t>
+        </is>
+      </c>
       <c r="P229" t="n">
         <v>5</v>
       </c>
@@ -10012,7 +12999,26 @@
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+les 3 personnes à auditer:
+- l’appriovisionneur
+- le preparateur de commande
+- l’expeditionnaire
+Guide d’entretien de l’approvisionneur
+Processus:  S’approvisionner
+Lieu: DISTRILEC	                                                                 référentiel: ISO
+Date: 31 mars 2023
+Durée: 
+Équipe d’auditeur: 
+</t>
+        </is>
+      </c>
       <c r="P230" t="n">
         <v>1.67</v>
       </c>
@@ -10055,7 +13061,24 @@
         </is>
       </c>
       <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+En conclusion ,  l’analyse de la situation de rupture de stock nous a permis de determiner les causes de cette situation.
+Nous avons pu identifier un point. En effet, la surveillance du stock est quoditiennement surveillé (en particulier par une bonne gestion de kla tracabilté des entrées et sorties dans le systeme d’information, des alertes de preparateurs de commande quand  ils voient un stock presque vide et la mise ne place d’inventaires ciblés chaque semaine.
+Comme point sensible, l’approvisionneur se fait à flux tendu
+comme ecart obserservé : 
+- des objectifs qualité sont établis et planifiés au niveau du processus. Cependant les preuves de réalisation des actions ne sont toujours pas disponibles.
+- la selection des prestataires ne respecte pas compte la procedure 
+</t>
+        </is>
+      </c>
       <c r="P231" t="n">
         <v>5</v>
       </c>
@@ -10095,7 +13118,15 @@
         </is>
       </c>
       <c r="N232" t="inlineStr"/>
-      <c r="O232" t="inlineStr"/>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P232" t="n">
         <v>0</v>
       </c>
@@ -10137,7 +13168,17 @@
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
-      <c r="O233" t="inlineStr"/>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P233" t="n">
         <v>0</v>
       </c>
@@ -10179,7 +13220,27 @@
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q1 : ANALYSE DES RISQUES
+Quels sont les risques engendrés par cette situation
+Evaluer ces risques
+Identifier ceux qui sont critiques – et pourquoi (vous pouvez vous servir de la matrice de criticité des risques)
+Votre réponse : 
+Problématique : 
+Déclenchement d’un audit de l’organisation pour identifier les causes des ruptures de stocks du produit A et sur la mise en place de solutions pour éviter le mécontentement des clients.
+Les risques engendrés par cette situation sont les suivants : 
+Les clients se tournent vers une autre entreprise pour s’approvisionner ;
+Pression au sein des équipes pouvant occasionner une mauvaise ambiance ;
+Perte de chiffre d’affaire
+Mécontentement des clients pouvant jouer sur l’image de l’entreprise
+Matrice des risques : 
+De manière globale, le risque le plus grave est que l’image de l’entreprise s’en retrouve entachée et que de potentiels nouveaux clients se détourne de l’entreprise du fait des avis négatifs. 
+Au final, en plus de perdre des clients, l’entreprise n’arrivera pas à en trouver de nouveau et sera en quelque sorte « blacklistée ».
+</t>
+        </is>
+      </c>
       <c r="P234" t="n">
         <v>7.5</v>
       </c>
@@ -10221,7 +13282,26 @@
         </is>
       </c>
       <c r="N235" t="inlineStr"/>
-      <c r="O235" t="inlineStr"/>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q2 : DECLENCHEMENT DE L’AUDIT
+Qui mandate l’audit
+Qui va réaliser l’audit (vous pouvez choisir interne ou externe)
+Sur quels critères l’auditeur est choisi ?
+Votre réponse : 
+L’audit est mandaté par le directeur d’agence en lien avec la direction générale de l’entreprise DISTRELEC.
+Le mieux est que l’audit soit réalisé par un cabinet extérieur ce qui permettra d’avoir une certaine légitimité et également un regard extérieur sur les processus en place. Cet audit se fera en lien avec le directeur d’agence, le responsable du service logistique et le responsable du service achat afin de mettre à jour les dysfonctionnements liés à ces ruptures de stock.
+Les critères sur lesquels l’auditeur est choisi sont les suivants :
+Son indépendance (d’où le choix d’un cabinet extérieur) ;
+Sa légitimité (connaissance des process logistiques) ;
+Sa discrétion (l’audit doit rester interne à la société) ;
+Son sens du relationnel (pour faciliter le dialogue avec les collaborateurs) ;
+Son professionnalisme (il est attendu qu’il connaisse parfaitement le déroulement d’un audit de l’organisation) ;
+Son impartialité (il ne doit prendre parti ni pour la direction qui le mandate, ni pour les collaborateurs qui pourrait l’attendrir).
+</t>
+        </is>
+      </c>
       <c r="P235" t="n">
         <v>7.5</v>
       </c>
@@ -10263,7 +13343,47 @@
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
-      <c r="O236" t="inlineStr"/>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q3 : PLANIFICATION DE L’AUDIT
+Quelles sont les étapes de l’audit
+Etablir le planning de l’audit (en tenant compte des dates prévues)
+Identifier les acteurs de l’audit et leurs responsabilités (utiliser la matrice RACI)
+Votre réponse : 
+Les étapes de l’audit sont les suivantes. : 
+Préparation de l’audit
+L’analyse documentaire
+Il va falloir dans un 1er temps identifier le travail prescrit en étudiant les documents suivants :
+Documents de présentation de l’entreprise
+Organigramme de l’entreprise
+Manuel qualité
+Faire un état des lieux 
+Existe-t-il d’ancien rapport d’audit
+Tableaux de bord
+CRM
+Contour de l’audit
+Qui interroger
+Préparer son guide d’entretien (fil conducteur de l’audit) , utilisation de la roue de Deming (act, plan, check, do).
+Recueil d’information sur le terrain 
+Observer le fonctionnement sans rentrer en contact avec les collaborateurs afin d’identifier d’éventuels dysfonctionnements, des difficultés rencontrées ou des risques apparents ;
+Réaliser des entretiens terrains face à face sur les lieux de travail avec. :
+Le responsable du service logistique ;
+2 ou 3 préparateurs de commande ;
+2 ou 3 expéditionnaires ;
+Le responsable du service achat ;
+2 ou 3 approvisionneurs
+2 ou 3 réceptionnaires
+Réaliser un groupe de travail avec un représentant de chaque secteur pour pouvoir échanger sur des avis ou idées pouvant faire évoluer le process.
+Synthèse de l’audit
+Partie rédactionnelle interne à l’auditeur.
+Recherche de solutions d’améliorations 
+Utilisation du diagramme d’Ishikawa
+Travail en groupe pour éventuellement essayer de trouver des solutions provenant des collaborateurs qui seront plus facile à appliquer car venant d’eux.
+Planning de l’audit : 
+</t>
+        </is>
+      </c>
       <c r="P236" t="n">
         <v>8.33</v>
       </c>
@@ -10303,7 +13423,31 @@
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr"/>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q4 : Analyse documentaire
+Quels sont les documents qui pourraient vous aider à préparer cet audit ? (Soyez précis, vous pouvez identifier des documents que DISTRELEC pourrait avoir)
+Votre réponse : 
+Les documents qui pourraient m’aider à préparer cet audit sont les suivants :
+Organigramme
+Fiche de poste
+Contrats de travail 
+CRM
+Tableau de bord
+Plaquette de l’entreprise
+Catalogue des produits proposés
+Clauses de vente pour les clients
+CR de réunions 
+PV d’audits antérieurs
+Fiche d’identité de processus (notamment pour la gestion des stocks)
+Cartographie des processus opérationnels dédiés à l’approvisionnement et à la logistique ;
+Guides de bonnes pratiques s’ils existent
+Outils ou documents en rapport avec les processus d’efficacité opérationnels
+Le manuel qualité.
+</t>
+        </is>
+      </c>
       <c r="P237" t="n">
         <v>7.5</v>
       </c>
@@ -10344,7 +13488,35 @@
         </is>
       </c>
       <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr"/>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q5 : REALISATION DE L’AUDIT
+Identifier 3 personnes (fonctions) à auditer
+Elaborer le guide d’entretien pour l’un des audités (préciser lequel)
+Votre réponse : 
+Le directeur d’agence
+Le responsable du service logistique
+Un préparateur de commande
+Ex de guide d’entretien pour un préparateur de commande :
+Ex d’intro : 
+Bonjour, je m’appelle Arnaud et j’ai été mandaté par votre direction pour réaliser un audit d’organisation suite à de nombreuses ruptures de stock le mois dernier.
+Cet entretien doit me permettre de comprendre quel rôle vous jouer dans le processus de gestion des stocks. Ce dernier se déroulera sur votre lieu de travail si cela ne vous dérange pas. Votre hiérarchie est au courant et ne vous mettra pas en cause en cas de retard dans votre travail durant notre entretien. Il durera 1h environ. Si cela ne vous dérange pas, je souhaiterai également l’enregistrer pour pouvoir m’y replonger à tête reposé. Cet enregistrement est bien entendu confidentiel.
+Ex de questions par thématique : 
+Pouvez-vous vous présenter et me dire quelle est votre fonction dans l’entreprise ?
+Quel rôle jouer vous dans le processus de gestion des stocks ?
+Quelles relations avez-vous avec les autres services du pilier logistiques ? et du service achat ?
+Quelle type de logiciel utilisez vous pour suivre les stocks ? Avez-vous reçu une formation pour l’utiliser ?
+En cas de problème, quel est la marche à suivre ? 
+SI vous pouviez changer quelque chose dans votre travail qu’est ce que ça serait ? 
+En quoi cela améliorerait le processus de gestion des stocks ?
+En quoi cela permettrait d’éviter les ruptures de stocks ?
+Auriez vous une idée d’où peut provenir le problème ?
+Phase de conclusion 
+Je vous remercie pour votre franchise et pour le temps que vous m’avez accordé. Je vous solliciterai à nouveau pour un travail de groupe le 1er mars. Les conclusions de l’audit seront connues fin mars et seront présentés au sein de votre entreprise. Merci encore et excellente journée.
+</t>
+        </is>
+      </c>
       <c r="P238" t="n">
         <v>8.33</v>
       </c>
@@ -10387,7 +13559,27 @@
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr"/>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q6 : CONCLUSIONS DE L’AUDIT
+Rédiger votre conclusion (à imaginer) présentant : 
+ 1 point fort
+ 2 points sensibles
+ 2 écarts
+Votre réponse : 
+Après avoir pu auditer les membres de l’agence en charge du processus de gestion des stocks je retiens les points suivants : 
+Point fort de l’agence :
+Une organisation bien structurée et avec des rôles bien identifiés pour chacun des collaborateurs. Les fiches de poste sont bien rédigées et les objectifs fixés par le directeur d’agence sont largement atteignables et ambitieux
+Points sensibles : 
+Trop de temps passé à gérer les procédures administratives au détriment de la gestion efficace des stocks en temps réel ;
+La bonne structure de l’organisation peut conduire à une organisation en colonne ou l’information doit d’abord remonter en tête de pilier (chef de service) avant d’être transmise dans un autre pilier. (ex : une info du préparateur de commande à destination du réceptionnaire passe par le responsable du service logistique puis le responsable du service achat avant de redescendre au réceptionnaire). Un travail plus transversal serait profitable.
+Écarts :
+Un logiciel de gestion des stocks qui n’est pas encore au point et pour lequel tout le monde n’est pas encore formé.
+Écart entre le guide des bonnes pratiques et la réalité du terrain ou certaines taches décrites ne sont pas réalisable en l’état.
+</t>
+        </is>
+      </c>
       <c r="P239" t="n">
         <v>10</v>
       </c>
@@ -10427,7 +13619,15 @@
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
-      <c r="O240" t="inlineStr"/>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q7 : RECHERCHE DES CAUSES
+Pour chaque écart relevé identifier faite une analyse des causes (en utilisant le diagramme 5M)
+Votre réponse : 
+</t>
+        </is>
+      </c>
       <c r="P240" t="n">
         <v>10</v>
       </c>
@@ -10469,7 +13669,24 @@
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Q8 : SOLUTIONS
+Trouver 2 solutions pour chaque écart : 
+ Préciser à quelles causes elles correspondent
+ Décrire les solutions
+Votre réponse : 
+Ecart 1 : Un logiciel de gestion des stocks qui n’est pas encore au point et pour lequel tout le monde n’est pas encore formé.
+Solutions :
+Finaliser le logiciel de gestion des stocks en lien avec les collaborateurs en charge de l’utiliser afin de prendre en compte les bonnes pratiques et de le rendre utilisable rapidement par le plus grand nombre
+Assurer la formation des collaborateurs à l’utilisation de ce logiciel y compris les responsables de service
+Ecart 2 : Écart entre le guide des bonnes pratiques et la réalité du terrain ou certaines taches décrites ne sont pas réalisable en l’état.
+Solutions :
+Mettre en place un groupe de travail pour travailler sur la refonte du guide des bonnes pratiques incluants des membres de chaque service
+Faire valider les process pour chaque atelier avec les membres de ces derniers afin d’être en corrélation entre les pratiques normées et les pratiques efficaces et rapides en vue d’améliorer l’efficacité et l’efficience des processus opérationnels.</t>
+        </is>
+      </c>
       <c r="P241" t="n">
         <v>10</v>
       </c>
